--- a/data/CS1_3/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFED094F-B1F1-4BD5-8621-ED5AC7B543B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2185F3E0-B599-4622-B9AA-5DBE9B019D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26775" yWindow="1965" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -3457,7 +3457,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS1_3/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2185F3E0-B599-4622-B9AA-5DBE9B019D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260E89F0-8063-40B8-8165-91BCDDA071BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26775" yWindow="1965" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -140,22 +140,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>-5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3409,12 +3409,12 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3460,9 +3460,9 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3539,509 +3539,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>259.12782281304777</v>
+        <v>153.58737290246557</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>246.91263545164739</v>
+        <v>146.34732235141985</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>241.788033583783</v>
+        <v>143.30992509506962</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>234.79994012760432</v>
+        <v>139.16801974550114</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.1293046129972</v>
+        <v>140.54865486202397</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>247.16420681606979</v>
+        <v>146.49643094400432</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>268.19370939019689</v>
+        <v>158.96080477597241</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>278.20997667738635</v>
+        <v>164.89753577702055</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>290.32267200142945</v>
+        <v>172.07683838293929</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>275.26565996784979</v>
+        <v>163.15241298973572</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>269.01364568905524</v>
+        <v>159.44678833698848</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>244.32238214389054</v>
+        <v>144.81205610184651</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.5579076783095</v>
+        <v>140.80269172346416</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.02740854684518</v>
+        <v>120.33615675612977</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>211.22677153542813</v>
+        <v>125.1959923662901</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.53898290488735</v>
+        <v>113.52686436143915</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.34915883143199</v>
+        <v>110.45080932182631</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.36150828962539</v>
+        <v>109.86542003242063</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>187.80268227031715</v>
+        <v>111.31232563453655</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.30456465639861</v>
+        <v>126.42751889022847</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>258.53150550478722</v>
+        <v>153.23393031263575</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>258.18675956094904</v>
+        <v>153.02959631539036</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>244.47146147095566</v>
+        <v>144.90041674930393</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.55443276368555</v>
+        <v>137.83708749317313</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>246.17143167239536</v>
+        <v>145.90800425734227</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>234.56700367906501</v>
+        <v>139.02995623384885</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>229.69863190459387</v>
+        <v>136.14442884031615</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>223.05994312122408</v>
+        <v>132.20961875822607</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.27283938234734</v>
+        <v>133.52122211892276</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>234.80599647526631</v>
+        <v>139.17160939680409</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>254.78402392068708</v>
+        <v>151.01276453717378</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>264.29947784351702</v>
+        <v>156.65265898816955</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>275.80653840135795</v>
+        <v>163.47299646379233</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>261.50237696945726</v>
+        <v>154.99479234024892</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>255.56296340460247</v>
+        <v>151.47444892013905</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.10626303669599</v>
+        <v>137.57145329675416</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.680012294394</v>
+        <v>133.76255713729097</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.87603811950291</v>
+        <v>114.31934891832327</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>200.66543295865671</v>
+        <v>118.93619274797558</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.96203375964296</v>
+        <v>107.85052114336719</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.03170088986039</v>
+        <v>104.92826885573498</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.09343287514412</v>
+        <v>104.37214903079959</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.41254815680128</v>
+        <v>105.74670935280972</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>202.6393364235787</v>
+        <v>120.10614294571705</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>245.60493022954785</v>
+        <v>145.57223379700397</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>245.27742158290161</v>
+        <v>145.37811649962083</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.24788839740785</v>
+        <v>137.65539591183872</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>220.92671112550127</v>
+        <v>130.94523311851449</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>272.08421395370016</v>
+        <v>161.26674154758888</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>259.25826722422977</v>
+        <v>153.66468846899087</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>253.87743526297214</v>
+        <v>150.47542134982311</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>246.53993713398455</v>
+        <v>146.12642073277621</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>248.98576984364706</v>
+        <v>147.57608760512517</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>259.5224171568733</v>
+        <v>153.82125249120452</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>281.60339485970673</v>
+        <v>166.90884501477103</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>292.12047551125568</v>
+        <v>173.14241256587158</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>304.83880560150089</v>
+        <v>180.68068030208624</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>289.02894296624231</v>
+        <v>171.31003363922252</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>282.46432797350803</v>
+        <v>167.4191277538379</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>256.53850125108505</v>
+        <v>152.05265890693883</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>249.43580306222498</v>
+        <v>147.84282630963739</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.17877897418745</v>
+        <v>126.35296459393626</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>221.78811011219955</v>
+        <v>131.45579198460462</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>201.1159320501317</v>
+        <v>119.20320757951112</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.66661677300362</v>
+        <v>115.97334978791764</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.62958370410666</v>
+        <v>115.35869103404164</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>197.19281638383302</v>
+        <v>116.87794191626338</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>223.96979288921855</v>
+        <v>132.7488948347399</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>271.45808078002653</v>
+        <v>160.89562682826752</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>271.0960975389965</v>
+        <v>160.68107613115987</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>256.69503454450347</v>
+        <v>152.14543758676913</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>244.18215440186984</v>
+        <v>144.72894186783179</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>233.215040531743</v>
+        <v>138.22863561221902</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>222.22137190648269</v>
+        <v>131.71259011627788</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>217.6092302254047</v>
+        <v>128.97893258556266</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>211.3199461148439</v>
+        <v>125.25121777095104</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.41637415169748</v>
+        <v>126.49378937582158</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>222.44778613446283</v>
+        <v>131.84678784960388</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>241.37433845117721</v>
+        <v>143.06472429837518</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>250.38897900964773</v>
+        <v>148.40778219931852</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>261.29040480128651</v>
+        <v>154.86915454464534</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>247.73909397106482</v>
+        <v>146.83717169076218</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>242.11228112014976</v>
+        <v>143.50210950328963</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>219.89014392950148</v>
+        <v>130.33085049166183</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.80211691047853</v>
+        <v>126.72242255111775</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.72466769216066</v>
+        <v>108.3025410805168</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.10409438188535</v>
+        <v>112.67639312966111</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.38508461439861</v>
+        <v>102.17417792529524</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.71424294828881</v>
+        <v>99.405728389643684</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.82535746066287</v>
+        <v>98.878878029178566</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.02241404328544</v>
+        <v>100.18109307108288</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.97410819075876</v>
+        <v>113.78476700120562</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.6783549543085</v>
+        <v>137.91053728137217</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.36808360485415</v>
+        <v>137.72663668385132</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>220.02431532386009</v>
+        <v>130.41037507437355</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.29898948731702</v>
+        <v>124.05337874385583</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>285.0406050943526</v>
+        <v>168.94611019271215</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>271.60389899681218</v>
+        <v>160.98205458656187</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>265.96683694216136</v>
+        <v>157.6409176045766</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>258.27993414036479</v>
+        <v>153.08482172005128</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>260.84223507429692</v>
+        <v>154.60352034822637</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>271.88062749767681</v>
+        <v>161.14607403840475</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>295.01308032921662</v>
+        <v>174.85688525356966</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>306.030974345125</v>
+        <v>181.38728935472261</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>319.35493920157245</v>
+        <v>189.28452222123323</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>302.79222596463478</v>
+        <v>179.46765428870933</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>295.91501025796077</v>
+        <v>175.39146717068732</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>268.75462035827962</v>
+        <v>159.29326171203115</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>261.31369844614045</v>
+        <v>154.88296089581058</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>223.3301494015297</v>
+        <v>132.36977243174275</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.34944868897097</v>
+        <v>137.71559160291912</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>210.69288119537609</v>
+        <v>124.87955079758306</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>204.98407471457523</v>
+        <v>121.49589025400897</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.89765911858797</v>
+        <v>120.85196203566269</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>206.58295049734886</v>
+        <v>122.4435581979902</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>234.63502112203849</v>
+        <v>139.07027077925133</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>284.38465605526596</v>
+        <v>168.55732334389933</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>284.00543551704396</v>
+        <v>168.3325559469294</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>268.91860761805123</v>
+        <v>159.39045842423437</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>255.80987604005415</v>
+        <v>151.62079624249048</v>
       </c>
     </row>
   </sheetData>
@@ -4058,9 +4058,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4137,512 +4137,512 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Winter'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.82556456260955</v>
+        <v>74.887450742120876</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Winter'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.82556456260955</v>
+        <v>74.887450742120876</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Winter'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.258080960257303</v>
+        <v>75.512432846944364</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Winter'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.838726304260156</v>
+        <v>76.351459878577089</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Winter'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.82556456260955</v>
+        <v>74.887450742120876</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Winter'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.064534400285893</v>
+        <v>83.902703163271525</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Winter'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.838726304260156</v>
+        <v>76.351459878577089</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Winter'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.677435616254442</v>
+        <v>74.673405815311654</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Winter'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.935499584245861</v>
+        <v>72.156324720413508</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Winter'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.774208896240147</v>
+        <v>70.478270657148087</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Winter'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.612918208234426</v>
+        <v>68.800216593882638</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Winter'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.451627520228712</v>
+        <v>67.122162530617217</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Winter'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.032272864231579</v>
+        <v>67.961189562249942</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Winter'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.612918208234426</v>
+        <v>68.800216593882638</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Winter'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.193563552237279</v>
+        <v>69.639243625515348</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.774208896240147</v>
+        <v>70.478270657148087</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Winter'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.193563552237279</v>
+        <v>69.639243625515348</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Winter'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.774208896240147</v>
+        <v>70.478270657148087</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Winter'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.193563552237279</v>
+        <v>69.639243625515348</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Winter'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.774208896240147</v>
+        <v>70.478270657148087</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Winter'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.193563552237279</v>
+        <v>69.639243625515348</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Winter'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.612918208234426</v>
+        <v>68.800216593882638</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Winter'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.354854240243007</v>
+        <v>71.317297688780798</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.096790272251589</v>
+        <v>73.834378783678943</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Winter'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.234286334479073</v>
+        <v>71.143078205014831</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Winter'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.234286334479073</v>
+        <v>71.143078205014831</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Winter'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.64517691224443</v>
+        <v>71.736811204597146</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Winter'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.196789989047147</v>
+        <v>72.533886884648226</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Winter'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.234286334479073</v>
+        <v>71.143078205014831</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Winter'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.161307680271598</v>
+        <v>79.707568005107944</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Winter'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.196789989047147</v>
+        <v>72.533886884648226</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Winter'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.093563835441721</v>
+        <v>70.939735524546066</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Winter'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.43872460503357</v>
+        <v>68.548508484392826</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Winter'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.335498451428137</v>
+        <v>66.954357124290667</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Winter'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.232272297822703</v>
+        <v>65.360205764188507</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Winter'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.129046144217277</v>
+        <v>63.766054404086354</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Winter'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.680659221020001</v>
+        <v>64.563130084137441</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Winter'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.232272297822703</v>
+        <v>65.360205764188507</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Winter'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.78388537462542</v>
+        <v>66.157281444239587</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.335498451428137</v>
+        <v>66.954357124290667</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Winter'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.78388537462542</v>
+        <v>66.157281444239587</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Winter'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.335498451428137</v>
+        <v>66.954357124290667</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Winter'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.78388537462542</v>
+        <v>66.157281444239587</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Winter'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.335498451428137</v>
+        <v>66.954357124290667</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Winter'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.78388537462542</v>
+        <v>66.157281444239587</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Winter'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.232272297822703</v>
+        <v>65.360205764188507</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Winter'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.887111528230854</v>
+        <v>67.751432804341746</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.541950758639004</v>
+        <v>70.142659844494986</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Winter'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.416842790740034</v>
+        <v>78.631823279226936</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Winter'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.416842790740034</v>
+        <v>78.631823279226936</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Winter'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.870985008270175</v>
+        <v>79.288054489291596</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Winter'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.480662619473165</v>
+        <v>80.169032872505937</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Winter'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.416842790740034</v>
+        <v>78.631823279226936</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Winter'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>60.967761120300182</v>
+        <v>88.097838321435091</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Winter'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.480662619473165</v>
+        <v>80.169032872505937</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Winter'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.261307397067171</v>
+        <v>78.407076106077241</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Winter'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.432274563458158</v>
+        <v>75.764140956434176</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Winter'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.212919341052157</v>
+        <v>74.00218419000548</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Winter'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.993564118646148</v>
+        <v>72.240227423576769</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Winter'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.774208896240147</v>
+        <v>70.478270657148087</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Winter'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.383886507443165</v>
+        <v>71.359249040362457</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Winter'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.993564118646148</v>
+        <v>72.240227423576769</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Winter'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.603241729849152</v>
+        <v>73.121205806791124</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.212919341052157</v>
+        <v>74.00218419000548</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Winter'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.603241729849152</v>
+        <v>73.121205806791124</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Winter'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.212919341052157</v>
+        <v>74.00218419000548</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Winter'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.603241729849152</v>
+        <v>73.121205806791124</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Winter'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.212919341052157</v>
+        <v>74.00218419000548</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Winter'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.603241729849152</v>
+        <v>73.121205806791124</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Winter'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.993564118646148</v>
+        <v>72.240227423576769</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Winter'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.822596952255161</v>
+        <v>74.883162573219835</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.651629785864174</v>
+        <v>77.5260977228629</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Winter'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.643008106348603</v>
+        <v>67.3987056679088</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Winter'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.643008106348603</v>
+        <v>67.3987056679088</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Winter'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.032272864231565</v>
+        <v>67.961189562249928</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Winter'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.554853673834138</v>
+        <v>68.716313890719377</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Winter'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.643008106348603</v>
+        <v>67.3987056679088</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Winter'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.258080960257303</v>
+        <v>75.512432846944364</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Winter'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.554853673834138</v>
+        <v>68.716313890719377</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Winter'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.509692054628999</v>
+        <v>67.206065233780492</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Winter'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.94194962582128</v>
+        <v>64.940692248372159</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Winter'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.896788006616134</v>
+        <v>63.430443591433274</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Winter'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.851626387410988</v>
+        <v>61.920194934494383</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Winter'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.806464768205842</v>
+        <v>60.409946277555498</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Winter'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.329045577808422</v>
+        <v>61.165070606024955</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Winter'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.851626387410988</v>
+        <v>61.920194934494383</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Winter'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.374207197013554</v>
+        <v>62.675319262963818</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.896788006616134</v>
+        <v>63.430443591433274</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Winter'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.374207197013554</v>
+        <v>62.675319262963818</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Winter'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.896788006616134</v>
+        <v>63.430443591433274</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Winter'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.374207197013554</v>
+        <v>62.675319262963818</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Winter'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.896788006616134</v>
+        <v>63.430443591433274</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Winter'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.374207197013554</v>
+        <v>62.675319262963818</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Winter'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.851626387410988</v>
+        <v>61.920194934494383</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Winter'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.419368816218707</v>
+        <v>64.185567919902724</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.987111245026426</v>
+        <v>66.450940905311057</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Winter'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.008121018870519</v>
+        <v>82.376195816332981</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Winter'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.008121018870519</v>
+        <v>82.376195816332981</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Winter'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.483889056283033</v>
+        <v>83.063676131638815</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Winter'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.122598934686174</v>
+        <v>83.986605866434786</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Winter'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.008121018870519</v>
+        <v>82.376195816332981</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Winter'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>63.870987840314477</v>
+        <v>92.292973479598672</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Winter'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.122598934686174</v>
+        <v>83.986605866434786</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Winter'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.845179177879892</v>
+        <v>82.140746396842829</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Winter'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.929049542670455</v>
+        <v>79.371957192454872</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Winter'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.651629785864174</v>
+        <v>77.5260977228629</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Winter'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.37421002905787</v>
+        <v>75.680238253270915</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Winter'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.096790272251589</v>
+        <v>73.834378783678943</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Winter'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.735500150654737</v>
+        <v>74.757308518474943</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Winter'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.37421002905787</v>
+        <v>75.680238253270915</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Winter'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.012919907461011</v>
+        <v>76.603167988066886</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.651629785864174</v>
+        <v>77.5260977228629</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Winter'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.012919907461011</v>
+        <v>76.603167988066886</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Winter'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.651629785864174</v>
+        <v>77.5260977228629</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Winter'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.012919907461011</v>
+        <v>76.603167988066886</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Winter'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.651629785864174</v>
+        <v>77.5260977228629</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Winter'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.012919907461011</v>
+        <v>76.603167988066886</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Winter'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.37421002905787</v>
+        <v>75.680238253270915</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Winter'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.290339664267314</v>
+        <v>78.449027457658886</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.206469299476751</v>
+        <v>81.217816662046843</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4681,9 +4681,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4760,509 +4760,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>285.0406050943526</v>
+        <v>411.88097908166492</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.64524771335226</v>
+        <v>396.85978596227432</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.64524771335226</v>
+        <v>396.85978596227432</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>277.83879710536797</v>
+        <v>401.47443463625422</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.64524771335226</v>
+        <v>396.85978596227432</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.64524771335226</v>
+        <v>396.85978596227432</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.01308032921662</v>
+        <v>426.29111149856681</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>306.030974345125</v>
+        <v>442.21186416883353</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>319.35493920157245</v>
+        <v>461.46486739799343</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>312.96784041754097</v>
+        <v>452.23557005003357</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>316.16138980955668</v>
+        <v>456.85021872401347</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>319.35493920157245</v>
+        <v>461.46486739799343</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>306.58074163350955</v>
+        <v>443.00627270207366</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>287.41944528141522</v>
+        <v>415.31838065819409</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>290.61299467343088</v>
+        <v>419.93302933217399</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.00009345746236</v>
+        <v>429.1623266801339</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>300.19364284947807</v>
+        <v>433.7769753541138</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.00009345746236</v>
+        <v>429.1623266801339</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>290.61299467343088</v>
+        <v>419.93302933217399</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>290.61299467343088</v>
+        <v>419.93302933217399</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>293.80654406544659</v>
+        <v>424.54767800615389</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.00009345746236</v>
+        <v>429.1623266801339</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.03234649738374</v>
+        <v>406.08908331023423</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>255.80987604005415</v>
+        <v>369.64285199738504</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>270.78857483963492</v>
+        <v>391.28693012758163</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.91298532768468</v>
+        <v>377.01679666416061</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.91298532768468</v>
+        <v>377.01679666416061</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>263.94685725009958</v>
+        <v>381.40071290444149</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.91298532768468</v>
+        <v>377.01679666416061</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.91298532768468</v>
+        <v>377.01679666416061</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>280.26242631275579</v>
+        <v>404.97655592363844</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>290.72942562786875</v>
+        <v>420.10127096039179</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>303.38719224149384</v>
+        <v>438.39162402809376</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.31944839666392</v>
+        <v>429.62379154753188</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>300.35332031907882</v>
+        <v>434.00770778781276</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>303.38719224149384</v>
+        <v>438.39162402809376</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>291.25170455183405</v>
+        <v>420.85595906697</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>273.04847301734441</v>
+        <v>394.55246162528437</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.08234493975931</v>
+        <v>398.93637786556525</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.15008878458923</v>
+        <v>407.70421034612713</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>285.18396070700413</v>
+        <v>412.08812658640807</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.15008878458923</v>
+        <v>407.70421034612713</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.08234493975931</v>
+        <v>398.93637786556525</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.08234493975931</v>
+        <v>398.93637786556525</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.11621686217427</v>
+        <v>403.32029410584619</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.15008878458923</v>
+        <v>407.70421034612713</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.98072917251454</v>
+        <v>385.78462914472249</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.01938223805141</v>
+        <v>351.16070939751569</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>299.29263534907022</v>
+        <v>432.47502803574821</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.3775100990199</v>
+        <v>416.70277526038808</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.3775100990199</v>
+        <v>416.70277526038808</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>291.73073696063642</v>
+        <v>421.548156368067</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.3775100990199</v>
+        <v>416.70277526038808</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.3775100990199</v>
+        <v>416.70277526038808</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>309.76373434567751</v>
+        <v>447.60566707349517</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>321.33252306238126</v>
+        <v>464.32245737727521</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.32268616165106</v>
+        <v>484.5381107678931</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.61623243841802</v>
+        <v>474.84734855253521</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>331.96945930003454</v>
+        <v>479.69272966021418</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.32268616165106</v>
+        <v>484.5381107678931</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>321.90977871518498</v>
+        <v>465.15658633717737</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>301.79041754548598</v>
+        <v>436.08429969110381</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>305.1436444071025</v>
+        <v>440.92968079878273</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.85009813033548</v>
+        <v>450.62044301414062</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>315.203324991952</v>
+        <v>455.46582412181948</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.85009813033548</v>
+        <v>450.62044301414062</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>305.1436444071025</v>
+        <v>440.92968079878273</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>305.1436444071025</v>
+        <v>440.92968079878273</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>308.49687126871896</v>
+        <v>445.77506190646159</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.85009813033548</v>
+        <v>450.62044301414062</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.08396382225294</v>
+        <v>426.39353747574592</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>268.60036984205692</v>
+        <v>388.12499459725433</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.53654458491735</v>
+        <v>370.69288117349839</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>250.05491739483122</v>
+        <v>361.32699117262882</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>265.51177229629502</v>
+        <v>383.66200034871014</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.4278769106125</v>
+        <v>397.99067775195016</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>287.41944528141522</v>
+        <v>415.31838065819409</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.67105637578686</v>
+        <v>407.01201304503019</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>284.54525082860101</v>
+        <v>411.16519685161211</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>287.41944528141522</v>
+        <v>415.31838065819409</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.92266747015856</v>
+        <v>398.70564543186629</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>258.67750075327365</v>
+        <v>373.78654259237464</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.5516952060878</v>
+        <v>377.93972639895657</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>270.17427856453025</v>
+        <v>390.39927781870239</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.5516952060878</v>
+        <v>377.93972639895657</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.5516952060878</v>
+        <v>377.93972639895657</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>264.42588965890195</v>
+        <v>382.09291020553849</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>252.9291118476454</v>
+        <v>365.4801749792108</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.22888843604878</v>
+        <v>332.67856679764657</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>313.54466560378791</v>
+        <v>453.06907698983144</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>302.10977248468754</v>
+        <v>436.54576455850179</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>302.10977248468754</v>
+        <v>436.54576455850179</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>305.62267681590481</v>
+        <v>441.62187809987972</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>302.10977248468754</v>
+        <v>436.54576455850179</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>302.10977248468754</v>
+        <v>436.54576455850179</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>324.51438836213833</v>
+        <v>468.92022264842353</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>336.63407177963751</v>
+        <v>486.4330505857169</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>351.29043312172973</v>
+        <v>507.61135413779283</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>344.26462445929513</v>
+        <v>497.45912705503696</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>347.77752879051241</v>
+        <v>502.53524059641484</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>351.29043312172973</v>
+        <v>507.61135413779283</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>337.23881579686054</v>
+        <v>487.30689997228109</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>316.16138980955674</v>
+        <v>456.85021872401353</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>319.67429414077401</v>
+        <v>461.92633226539141</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>326.70010280320861</v>
+        <v>472.07855934814728</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>330.21300713442588</v>
+        <v>477.15467288952516</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>326.70010280320861</v>
+        <v>472.07855934814728</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>319.67429414077401</v>
+        <v>461.92633226539141</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>319.67429414077401</v>
+        <v>461.92633226539141</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>323.18719847199128</v>
+        <v>467.00244580676934</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>326.70010280320861</v>
+        <v>472.07855934814728</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>309.13558114712214</v>
+        <v>446.69799164125766</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.39086364405961</v>
+        <v>406.60713719712356</v>
       </c>
     </row>
   </sheetData>
@@ -5278,9 +5278,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5357,509 +5357,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>233.215040531743</v>
+        <v>336.99352833954396</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.7097481291064</v>
+        <v>324.70346124186079</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.7097481291064</v>
+        <v>324.70346124186079</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>227.32265217711924</v>
+        <v>328.47908288420797</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.7097481291064</v>
+        <v>324.70346124186079</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.7097481291064</v>
+        <v>324.70346124186079</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.37433845117721</v>
+        <v>348.78363668064554</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>250.38897900964773</v>
+        <v>361.80970704722739</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>261.29040480128651</v>
+        <v>377.56216423472182</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>256.06459670526078</v>
+        <v>370.01092095002741</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>258.67750075327365</v>
+        <v>373.78654259237464</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>261.29040480128651</v>
+        <v>377.56216423472182</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>250.83878860923505</v>
+        <v>362.459677665333</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.16136432115786</v>
+        <v>339.80594781124967</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.77426836917073</v>
+        <v>343.5815694535969</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.00007646519646</v>
+        <v>351.13281273829131</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>245.61298051320935</v>
+        <v>354.9084343806386</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.00007646519646</v>
+        <v>351.13281273829131</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.77426836917073</v>
+        <v>343.5815694535969</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.77426836917073</v>
+        <v>343.5815694535969</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>240.38717241718356</v>
+        <v>347.35719109594407</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.00007646519646</v>
+        <v>351.13281273829131</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>229.93555622513213</v>
+        <v>332.25470452655526</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.29898948731702</v>
+        <v>302.43506072513316</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.55428850515582</v>
+        <v>320.14385192256674</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.47426072265108</v>
+        <v>308.46828817976774</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.47426072265108</v>
+        <v>308.46828817976774</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>215.95651956826327</v>
+        <v>312.05512873999754</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.47426072265108</v>
+        <v>308.46828817976774</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.47426072265108</v>
+        <v>308.46828817976774</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>229.30562152861836</v>
+        <v>331.34445484661325</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.86953005916533</v>
+        <v>343.71922169486601</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>248.22588456122219</v>
+        <v>358.68405602298577</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.26136686999772</v>
+        <v>351.510374902526</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>245.74362571560999</v>
+        <v>355.09721546275591</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>248.22588456122219</v>
+        <v>358.68405602298577</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>238.2968491787733</v>
+        <v>344.33669378206633</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>223.40329610509997</v>
+        <v>322.81565042068718</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.88555495071219</v>
+        <v>326.40249098091704</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.85007264193663</v>
+        <v>333.57617210137676</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>233.33233148754886</v>
+        <v>337.16301266160661</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.85007264193663</v>
+        <v>333.57617210137676</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.88555495071219</v>
+        <v>326.40249098091704</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.88555495071219</v>
+        <v>326.40249098091704</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.36781379632438</v>
+        <v>329.9893315411469</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.85007264193663</v>
+        <v>333.57617210137676</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.4387784138755</v>
+        <v>315.64196930022746</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.83404001295114</v>
+        <v>287.31330768887648</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>244.87579255833015</v>
+        <v>353.84320475652117</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.94523553556175</v>
+        <v>340.93863430395385</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.94523553556175</v>
+        <v>340.93863430395385</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>238.68878478597523</v>
+        <v>344.9030370284184</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.94523553556175</v>
+        <v>340.93863430395385</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.94523553556175</v>
+        <v>340.93863430395385</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.44305537373609</v>
+        <v>366.22281851467784</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>262.9084279601301</v>
+        <v>379.90019239958883</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.35492504135084</v>
+        <v>396.44027244645793</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.86782654052388</v>
+        <v>388.51146699752883</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>271.61137579093736</v>
+        <v>392.47586972199338</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.35492504135084</v>
+        <v>396.44027244645793</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>263.38072803969686</v>
+        <v>380.58266154859967</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>246.91943253721573</v>
+        <v>356.79624520181216</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>249.66298178762926</v>
+        <v>360.76064792627676</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>255.15008028845628</v>
+        <v>368.68945337520591</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>257.89362953886979</v>
+        <v>372.65385609967052</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>255.15008028845628</v>
+        <v>368.68945337520591</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>249.66298178762926</v>
+        <v>360.76064792627676</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>249.66298178762926</v>
+        <v>360.76064792627676</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>252.40653103804274</v>
+        <v>364.72505065074131</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>255.15008028845628</v>
+        <v>368.68945337520591</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.43233403638877</v>
+        <v>348.86743975288306</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>219.76393896168287</v>
+        <v>317.55681376138983</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.89353647856871</v>
+        <v>303.29417550558958</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.23877331619579</v>
+        <v>292.23311511767474</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.23877331619579</v>
+        <v>292.23311511767474</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>204.59038695940734</v>
+        <v>295.63117459578723</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.23877331619579</v>
+        <v>292.23311511767474</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.23877331619579</v>
+        <v>292.23311511767474</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.23690460605948</v>
+        <v>313.90527301258095</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.35008110868296</v>
+        <v>325.62873634250468</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.16136432115786</v>
+        <v>339.80594781124967</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.45813703473473</v>
+        <v>333.00982885502469</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>232.80975067794631</v>
+        <v>336.40788833313724</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.16136432115786</v>
+        <v>339.80594781124967</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.75490974831155</v>
+        <v>326.21370989879972</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>211.64522788904208</v>
+        <v>305.82535303012475</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.99684153225368</v>
+        <v>309.22341250823723</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.70006881867681</v>
+        <v>316.0195314644622</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.05168246188842</v>
+        <v>319.41759094257475</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.70006881867681</v>
+        <v>316.0195314644622</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.99684153225368</v>
+        <v>309.22341250823723</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.99684153225368</v>
+        <v>309.22341250823723</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>216.3484551754652</v>
+        <v>312.62147198634966</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.70006881867681</v>
+        <v>316.0195314644622</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>206.94200060261892</v>
+        <v>299.02923407389972</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.36909053858534</v>
+        <v>272.19155465261986</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>256.53654458491735</v>
+        <v>370.69288117349839</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>250.05491739483122</v>
+        <v>361.32699117262882</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>265.51177229629496</v>
+        <v>383.66200034871008</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>275.42787691061255</v>
+        <v>397.99067775195022</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>287.41944528141522</v>
+        <v>415.31838065819409</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>281.67105637578686</v>
+        <v>407.01201304503019</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>284.54525082860107</v>
+        <v>411.16519685161217</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>287.41944528141522</v>
+        <v>415.31838065819409</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>275.92266747015861</v>
+        <v>398.70564543186634</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>258.67750075327365</v>
+        <v>373.78654259237464</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>261.55169520608786</v>
+        <v>377.93972639895662</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>270.17427856453031</v>
+        <v>390.39927781870244</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>261.55169520608786</v>
+        <v>377.93972639895662</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>261.55169520608786</v>
+        <v>377.93972639895662</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>264.42588965890195</v>
+        <v>382.09291020553849</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>252.92911184764534</v>
+        <v>365.48017497921074</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.22888843604872</v>
+        <v>332.67856679764645</v>
       </c>
     </row>
   </sheetData>
@@ -5875,9 +5875,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5954,509 +5954,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>259.12782281304777</v>
+        <v>153.58737290246557</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>246.91263545164739</v>
+        <v>146.34732235141985</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>241.788033583783</v>
+        <v>143.30992509506962</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>234.79994012760432</v>
+        <v>139.16801974550114</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.1293046129972</v>
+        <v>140.54865486202397</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>247.16420681606979</v>
+        <v>146.49643094400432</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>268.19370939019689</v>
+        <v>158.96080477597241</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>278.20997667738635</v>
+        <v>164.89753577702055</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>290.32267200142945</v>
+        <v>172.07683838293929</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>275.26565996784979</v>
+        <v>163.15241298973572</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>269.01364568905524</v>
+        <v>159.44678833698848</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>244.32238214389054</v>
+        <v>144.81205610184651</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.5579076783095</v>
+        <v>140.80269172346416</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.02740854684518</v>
+        <v>120.33615675612977</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>211.22677153542813</v>
+        <v>125.1959923662901</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.53898290488735</v>
+        <v>113.52686436143915</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.34915883143199</v>
+        <v>110.45080932182631</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.36150828962539</v>
+        <v>109.86542003242063</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>187.80268227031715</v>
+        <v>111.31232563453655</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.30456465639861</v>
+        <v>126.42751889022847</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>258.53150550478722</v>
+        <v>153.23393031263575</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>258.18675956094904</v>
+        <v>153.02959631539036</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>244.47146147095566</v>
+        <v>144.90041674930393</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.55443276368555</v>
+        <v>137.83708749317313</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>246.17143167239536</v>
+        <v>145.90800425734227</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>234.56700367906501</v>
+        <v>139.02995623384885</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>229.69863190459387</v>
+        <v>136.14442884031615</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>223.05994312122408</v>
+        <v>132.20961875822607</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.27283938234734</v>
+        <v>133.52122211892276</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>234.80599647526631</v>
+        <v>139.17160939680409</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>254.78402392068708</v>
+        <v>151.01276453717378</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>264.29947784351702</v>
+        <v>156.65265898816955</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>275.80653840135795</v>
+        <v>163.47299646379233</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>261.50237696945726</v>
+        <v>154.99479234024892</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>255.56296340460247</v>
+        <v>151.47444892013905</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.10626303669599</v>
+        <v>137.57145329675416</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.680012294394</v>
+        <v>133.76255713729097</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.87603811950291</v>
+        <v>114.31934891832327</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>200.66543295865671</v>
+        <v>118.93619274797558</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.96203375964296</v>
+        <v>107.85052114336719</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.03170088986039</v>
+        <v>104.92826885573498</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.09343287514412</v>
+        <v>104.37214903079959</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.41254815680128</v>
+        <v>105.74670935280972</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>202.6393364235787</v>
+        <v>120.10614294571705</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>245.60493022954785</v>
+        <v>145.57223379700397</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>245.27742158290161</v>
+        <v>145.37811649962083</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.24788839740785</v>
+        <v>137.65539591183872</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>220.92671112550127</v>
+        <v>130.94523311851449</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>272.08421395370016</v>
+        <v>161.26674154758888</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>259.25826722422977</v>
+        <v>153.66468846899087</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>253.87743526297214</v>
+        <v>150.47542134982311</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>246.53993713398455</v>
+        <v>146.12642073277621</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>248.98576984364706</v>
+        <v>147.57608760512517</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>259.5224171568733</v>
+        <v>153.82125249120452</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>281.60339485970673</v>
+        <v>166.90884501477103</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>292.12047551125568</v>
+        <v>173.14241256587158</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>304.83880560150089</v>
+        <v>180.68068030208624</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>289.02894296624231</v>
+        <v>171.31003363922252</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>282.46432797350803</v>
+        <v>167.4191277538379</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>256.53850125108505</v>
+        <v>152.05265890693883</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>249.43580306222498</v>
+        <v>147.84282630963739</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.17877897418745</v>
+        <v>126.35296459393626</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>221.78811011219955</v>
+        <v>131.45579198460462</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>201.1159320501317</v>
+        <v>119.20320757951112</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.66661677300362</v>
+        <v>115.97334978791764</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.62958370410666</v>
+        <v>115.35869103404164</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>197.19281638383302</v>
+        <v>116.87794191626338</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>223.96979288921855</v>
+        <v>132.7488948347399</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>271.45808078002653</v>
+        <v>160.89562682826752</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>271.0960975389965</v>
+        <v>160.68107613115987</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>256.69503454450347</v>
+        <v>152.14543758676913</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>244.18215440186984</v>
+        <v>144.72894186783179</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>233.215040531743</v>
+        <v>138.22863561221902</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>222.22137190648269</v>
+        <v>131.71259011627788</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>217.6092302254047</v>
+        <v>128.97893258556266</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>211.3199461148439</v>
+        <v>125.25121777095104</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.41637415169748</v>
+        <v>126.49378937582158</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>222.44778613446283</v>
+        <v>131.84678784960388</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>241.37433845117721</v>
+        <v>143.06472429837518</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>250.38897900964773</v>
+        <v>148.40778219931852</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>261.29040480128651</v>
+        <v>154.86915454464534</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>247.73909397106482</v>
+        <v>146.83717169076218</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>242.11228112014976</v>
+        <v>143.50210950328963</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>219.89014392950148</v>
+        <v>130.33085049166183</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>213.80211691047853</v>
+        <v>126.72242255111775</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.72466769216066</v>
+        <v>108.3025410805168</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.10409438188535</v>
+        <v>112.67639312966111</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.38508461439861</v>
+        <v>102.17417792529524</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.71424294828881</v>
+        <v>99.405728389643684</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.82535746066287</v>
+        <v>98.878878029178566</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.02241404328544</v>
+        <v>100.18109307108288</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.97410819075876</v>
+        <v>113.78476700120562</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.6783549543085</v>
+        <v>137.91053728137217</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.36808360485415</v>
+        <v>137.72663668385132</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>220.02431532386009</v>
+        <v>130.41037507437355</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.29898948731702</v>
+        <v>124.05337874385583</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>285.0406050943526</v>
+        <v>168.94611019271215</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>271.60389899681218</v>
+        <v>160.98205458656187</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>265.96683694216136</v>
+        <v>157.6409176045766</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>258.27993414036479</v>
+        <v>153.08482172005128</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>260.84223507429692</v>
+        <v>154.60352034822637</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>271.88062749767681</v>
+        <v>161.14607403840475</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>295.01308032921662</v>
+        <v>174.85688525356966</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>306.030974345125</v>
+        <v>181.38728935472261</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>319.35493920157245</v>
+        <v>189.28452222123323</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>302.79222596463478</v>
+        <v>179.46765428870933</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>295.91501025796077</v>
+        <v>175.39146717068732</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>268.75462035827962</v>
+        <v>159.29326171203115</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>261.31369844614045</v>
+        <v>154.88296089581058</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>223.3301494015297</v>
+        <v>132.36977243174275</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>232.34944868897097</v>
+        <v>137.71559160291912</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>210.69288119537609</v>
+        <v>124.87955079758306</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>204.98407471457523</v>
+        <v>121.49589025400897</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.89765911858797</v>
+        <v>120.85196203566269</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>206.58295049734886</v>
+        <v>122.4435581979902</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>234.63502112203849</v>
+        <v>139.07027077925133</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>284.38465605526596</v>
+        <v>168.55732334389933</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>284.00543551704396</v>
+        <v>168.3325559469294</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>268.91860761805123</v>
+        <v>159.39045842423437</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>255.80987604005415</v>
+        <v>151.62079624249048</v>
       </c>
     </row>
   </sheetData>
@@ -6473,9 +6473,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6552,512 +6552,512 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.82556456260955</v>
+        <v>74.887450742120876</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.82556456260955</v>
+        <v>74.887450742120876</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.258080960257303</v>
+        <v>75.512432846944364</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.838726304260156</v>
+        <v>76.351459878577089</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.82556456260955</v>
+        <v>74.887450742120876</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.064534400285893</v>
+        <v>83.902703163271525</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.838726304260156</v>
+        <v>76.351459878577089</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.677435616254442</v>
+        <v>74.673405815311654</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.935499584245861</v>
+        <v>72.156324720413508</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.774208896240147</v>
+        <v>70.478270657148087</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.612918208234426</v>
+        <v>68.800216593882638</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.451627520228712</v>
+        <v>67.122162530617217</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.032272864231579</v>
+        <v>67.961189562249942</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.612918208234426</v>
+        <v>68.800216593882638</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.193563552237279</v>
+        <v>69.639243625515348</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.774208896240147</v>
+        <v>70.478270657148087</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.193563552237279</v>
+        <v>69.639243625515348</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.774208896240147</v>
+        <v>70.478270657148087</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.193563552237279</v>
+        <v>69.639243625515348</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.774208896240147</v>
+        <v>70.478270657148087</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.193563552237279</v>
+        <v>69.639243625515348</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.612918208234426</v>
+        <v>68.800216593882638</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.354854240243007</v>
+        <v>71.317297688780798</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.096790272251589</v>
+        <v>73.834378783678943</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.234286334479073</v>
+        <v>71.143078205014831</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.234286334479073</v>
+        <v>71.143078205014831</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.64517691224443</v>
+        <v>71.736811204597146</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.196789989047147</v>
+        <v>72.533886884648226</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.234286334479073</v>
+        <v>71.143078205014831</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.161307680271598</v>
+        <v>79.707568005107944</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.196789989047147</v>
+        <v>72.533886884648226</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.093563835441721</v>
+        <v>70.939735524546066</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.43872460503357</v>
+        <v>68.548508484392826</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.335498451428137</v>
+        <v>66.954357124290667</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.232272297822703</v>
+        <v>65.360205764188507</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.129046144217277</v>
+        <v>63.766054404086354</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.680659221020001</v>
+        <v>64.563130084137441</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.232272297822703</v>
+        <v>65.360205764188507</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.78388537462542</v>
+        <v>66.157281444239587</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.335498451428137</v>
+        <v>66.954357124290667</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.78388537462542</v>
+        <v>66.157281444239587</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.335498451428137</v>
+        <v>66.954357124290667</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.78388537462542</v>
+        <v>66.157281444239587</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.335498451428137</v>
+        <v>66.954357124290667</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.78388537462542</v>
+        <v>66.157281444239587</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.232272297822703</v>
+        <v>65.360205764188507</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.887111528230854</v>
+        <v>67.751432804341746</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.541950758639004</v>
+        <v>70.142659844494986</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.416842790740034</v>
+        <v>78.631823279226936</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.416842790740034</v>
+        <v>78.631823279226936</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.870985008270175</v>
+        <v>79.288054489291596</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.480662619473165</v>
+        <v>80.169032872505937</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.416842790740034</v>
+        <v>78.631823279226936</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>60.967761120300182</v>
+        <v>88.097838321435091</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>55.480662619473165</v>
+        <v>80.169032872505937</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.261307397067171</v>
+        <v>78.407076106077241</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.432274563458158</v>
+        <v>75.764140956434176</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.212919341052157</v>
+        <v>74.00218419000548</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.993564118646148</v>
+        <v>72.240227423576769</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.774208896240147</v>
+        <v>70.478270657148087</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.383886507443165</v>
+        <v>71.359249040362457</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.993564118646148</v>
+        <v>72.240227423576769</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.603241729849152</v>
+        <v>73.121205806791124</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.212919341052157</v>
+        <v>74.00218419000548</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.603241729849152</v>
+        <v>73.121205806791124</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.212919341052157</v>
+        <v>74.00218419000548</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.603241729849152</v>
+        <v>73.121205806791124</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.212919341052157</v>
+        <v>74.00218419000548</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.603241729849152</v>
+        <v>73.121205806791124</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.993564118646148</v>
+        <v>72.240227423576769</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.822596952255161</v>
+        <v>74.883162573219835</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.651629785864174</v>
+        <v>77.5260977228629</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.643008106348603</v>
+        <v>67.3987056679088</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.643008106348603</v>
+        <v>67.3987056679088</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.032272864231565</v>
+        <v>67.961189562249928</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.554853673834138</v>
+        <v>68.716313890719377</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.643008106348603</v>
+        <v>67.3987056679088</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.258080960257303</v>
+        <v>75.512432846944364</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.554853673834138</v>
+        <v>68.716313890719377</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.509692054628999</v>
+        <v>67.206065233780492</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.94194962582128</v>
+        <v>64.940692248372159</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.896788006616134</v>
+        <v>63.430443591433274</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.851626387410988</v>
+        <v>61.920194934494383</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.806464768205842</v>
+        <v>60.409946277555498</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.329045577808422</v>
+        <v>61.165070606024955</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.851626387410988</v>
+        <v>61.920194934494383</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.374207197013554</v>
+        <v>62.675319262963818</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.896788006616134</v>
+        <v>63.430443591433274</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.374207197013554</v>
+        <v>62.675319262963818</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.896788006616134</v>
+        <v>63.430443591433274</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.374207197013554</v>
+        <v>62.675319262963818</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.896788006616134</v>
+        <v>63.430443591433274</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.374207197013554</v>
+        <v>62.675319262963818</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.851626387410988</v>
+        <v>61.920194934494383</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.419368816218707</v>
+        <v>64.185567919902724</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.987111245026426</v>
+        <v>66.450940905311057</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.008121018870519</v>
+        <v>82.376195816332981</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.008121018870519</v>
+        <v>82.376195816332981</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.483889056283033</v>
+        <v>83.063676131638815</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.122598934686174</v>
+        <v>83.986605866434786</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>57.008121018870519</v>
+        <v>82.376195816332981</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>63.870987840314477</v>
+        <v>92.292973479598672</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>58.122598934686174</v>
+        <v>83.986605866434786</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.845179177879892</v>
+        <v>82.140746396842829</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.929049542670455</v>
+        <v>79.371957192454872</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.651629785864174</v>
+        <v>77.5260977228629</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.37421002905787</v>
+        <v>75.680238253270915</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.096790272251589</v>
+        <v>73.834378783678943</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.735500150654737</v>
+        <v>74.757308518474943</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.37421002905787</v>
+        <v>75.680238253270915</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.012919907461011</v>
+        <v>76.603167988066886</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.651629785864174</v>
+        <v>77.5260977228629</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.012919907461011</v>
+        <v>76.603167988066886</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.651629785864174</v>
+        <v>77.5260977228629</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.012919907461011</v>
+        <v>76.603167988066886</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.651629785864174</v>
+        <v>77.5260977228629</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.012919907461011</v>
+        <v>76.603167988066886</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>52.37421002905787</v>
+        <v>75.680238253270915</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>54.290339664267314</v>
+        <v>78.449027457658886</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.206469299476751</v>
+        <v>81.217816662046843</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -7096,9 +7096,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7175,509 +7175,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>285.0406050943526</v>
+        <v>411.88097908166492</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.64524771335226</v>
+        <v>396.85978596227432</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.64524771335226</v>
+        <v>396.85978596227432</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>277.83879710536797</v>
+        <v>401.47443463625422</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.64524771335226</v>
+        <v>396.85978596227432</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.64524771335226</v>
+        <v>396.85978596227432</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.01308032921662</v>
+        <v>426.29111149856681</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>306.030974345125</v>
+        <v>442.21186416883353</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>319.35493920157245</v>
+        <v>461.46486739799343</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>312.96784041754097</v>
+        <v>452.23557005003357</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>316.16138980955668</v>
+        <v>456.85021872401347</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>319.35493920157245</v>
+        <v>461.46486739799343</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>306.58074163350955</v>
+        <v>443.00627270207366</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>287.41944528141522</v>
+        <v>415.31838065819409</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>290.61299467343088</v>
+        <v>419.93302933217399</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.00009345746236</v>
+        <v>429.1623266801339</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>300.19364284947807</v>
+        <v>433.7769753541138</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.00009345746236</v>
+        <v>429.1623266801339</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>290.61299467343088</v>
+        <v>419.93302933217399</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>290.61299467343088</v>
+        <v>419.93302933217399</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>293.80654406544659</v>
+        <v>424.54767800615389</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.00009345746236</v>
+        <v>429.1623266801339</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.03234649738374</v>
+        <v>406.08908331023423</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>255.80987604005415</v>
+        <v>369.64285199738504</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>270.78857483963492</v>
+        <v>391.28693012758163</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.91298532768468</v>
+        <v>377.01679666416061</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.91298532768468</v>
+        <v>377.01679666416061</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>263.94685725009958</v>
+        <v>381.40071290444149</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.91298532768468</v>
+        <v>377.01679666416061</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.91298532768468</v>
+        <v>377.01679666416061</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>280.26242631275579</v>
+        <v>404.97655592363844</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>290.72942562786875</v>
+        <v>420.10127096039179</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>303.38719224149384</v>
+        <v>438.39162402809376</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.31944839666392</v>
+        <v>429.62379154753188</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>300.35332031907882</v>
+        <v>434.00770778781276</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>303.38719224149384</v>
+        <v>438.39162402809376</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>291.25170455183405</v>
+        <v>420.85595906697</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>273.04847301734441</v>
+        <v>394.55246162528437</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.08234493975931</v>
+        <v>398.93637786556525</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.15008878458923</v>
+        <v>407.70421034612713</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>285.18396070700413</v>
+        <v>412.08812658640807</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.15008878458923</v>
+        <v>407.70421034612713</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.08234493975931</v>
+        <v>398.93637786556525</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.08234493975931</v>
+        <v>398.93637786556525</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>279.11621686217427</v>
+        <v>403.32029410584619</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>282.15008878458923</v>
+        <v>407.70421034612713</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.98072917251454</v>
+        <v>385.78462914472249</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.01938223805141</v>
+        <v>351.16070939751569</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>299.29263534907022</v>
+        <v>432.47502803574821</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.3775100990199</v>
+        <v>416.70277526038808</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.3775100990199</v>
+        <v>416.70277526038808</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>291.73073696063642</v>
+        <v>421.548156368067</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.3775100990199</v>
+        <v>416.70277526038808</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.3775100990199</v>
+        <v>416.70277526038808</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>309.76373434567751</v>
+        <v>447.60566707349517</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>321.33252306238126</v>
+        <v>464.32245737727521</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.32268616165106</v>
+        <v>484.5381107678931</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>328.61623243841802</v>
+        <v>474.84734855253521</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>331.96945930003454</v>
+        <v>479.69272966021418</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>335.32268616165106</v>
+        <v>484.5381107678931</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>321.90977871518498</v>
+        <v>465.15658633717737</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>301.79041754548598</v>
+        <v>436.08429969110381</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>305.1436444071025</v>
+        <v>440.92968079878273</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.85009813033548</v>
+        <v>450.62044301414062</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>315.203324991952</v>
+        <v>455.46582412181948</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.85009813033548</v>
+        <v>450.62044301414062</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>305.1436444071025</v>
+        <v>440.92968079878273</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>305.1436444071025</v>
+        <v>440.92968079878273</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>308.49687126871896</v>
+        <v>445.77506190646159</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>311.85009813033548</v>
+        <v>450.62044301414062</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.08396382225294</v>
+        <v>426.39353747574592</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>268.60036984205692</v>
+        <v>388.12499459725433</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.53654458491735</v>
+        <v>370.69288117349839</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>250.05491739483122</v>
+        <v>361.32699117262882</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>265.51177229629502</v>
+        <v>383.66200034871014</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.4278769106125</v>
+        <v>397.99067775195016</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>287.41944528141522</v>
+        <v>415.31838065819409</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.67105637578686</v>
+        <v>407.01201304503019</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>284.54525082860101</v>
+        <v>411.16519685161211</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>287.41944528141522</v>
+        <v>415.31838065819409</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.92266747015856</v>
+        <v>398.70564543186629</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>258.67750075327365</v>
+        <v>373.78654259237464</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.5516952060878</v>
+        <v>377.93972639895657</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>270.17427856453025</v>
+        <v>390.39927781870239</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.5516952060878</v>
+        <v>377.93972639895657</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.5516952060878</v>
+        <v>377.93972639895657</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>264.42588965890195</v>
+        <v>382.09291020553849</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>252.9291118476454</v>
+        <v>365.4801749792108</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.22888843604878</v>
+        <v>332.67856679764657</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>313.54466560378791</v>
+        <v>453.06907698983144</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>302.10977248468754</v>
+        <v>436.54576455850179</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>302.10977248468754</v>
+        <v>436.54576455850179</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>305.62267681590481</v>
+        <v>441.62187809987972</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>302.10977248468754</v>
+        <v>436.54576455850179</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>302.10977248468754</v>
+        <v>436.54576455850179</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>324.51438836213833</v>
+        <v>468.92022264842353</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>336.63407177963751</v>
+        <v>486.4330505857169</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>351.29043312172973</v>
+        <v>507.61135413779283</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>344.26462445929513</v>
+        <v>497.45912705503696</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>347.77752879051241</v>
+        <v>502.53524059641484</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>351.29043312172973</v>
+        <v>507.61135413779283</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>337.23881579686054</v>
+        <v>487.30689997228109</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>316.16138980955674</v>
+        <v>456.85021872401353</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>319.67429414077401</v>
+        <v>461.92633226539141</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>326.70010280320861</v>
+        <v>472.07855934814728</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>330.21300713442588</v>
+        <v>477.15467288952516</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>326.70010280320861</v>
+        <v>472.07855934814728</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>319.67429414077401</v>
+        <v>461.92633226539141</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>319.67429414077401</v>
+        <v>461.92633226539141</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>323.18719847199128</v>
+        <v>467.00244580676934</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>326.70010280320861</v>
+        <v>472.07855934814728</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>309.13558114712214</v>
+        <v>446.69799164125766</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.39086364405961</v>
+        <v>406.60713719712356</v>
       </c>
     </row>
   </sheetData>
@@ -7693,9 +7693,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7772,509 +7772,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>233.215040531743</v>
+        <v>336.99352833954396</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.7097481291064</v>
+        <v>324.70346124186079</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.7097481291064</v>
+        <v>324.70346124186079</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>227.32265217711924</v>
+        <v>328.47908288420797</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.7097481291064</v>
+        <v>324.70346124186079</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.7097481291064</v>
+        <v>324.70346124186079</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.37433845117721</v>
+        <v>348.78363668064554</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>250.38897900964773</v>
+        <v>361.80970704722739</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>261.29040480128651</v>
+        <v>377.56216423472182</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>256.06459670526078</v>
+        <v>370.01092095002741</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>258.67750075327365</v>
+        <v>373.78654259237464</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>261.29040480128651</v>
+        <v>377.56216423472182</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>250.83878860923505</v>
+        <v>362.459677665333</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.16136432115786</v>
+        <v>339.80594781124967</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.77426836917073</v>
+        <v>343.5815694535969</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.00007646519646</v>
+        <v>351.13281273829131</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>245.61298051320935</v>
+        <v>354.9084343806386</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.00007646519646</v>
+        <v>351.13281273829131</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.77426836917073</v>
+        <v>343.5815694535969</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.77426836917073</v>
+        <v>343.5815694535969</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>240.38717241718356</v>
+        <v>347.35719109594407</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.00007646519646</v>
+        <v>351.13281273829131</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>229.93555622513213</v>
+        <v>332.25470452655526</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.29898948731702</v>
+        <v>302.43506072513316</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.55428850515582</v>
+        <v>320.14385192256674</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.47426072265108</v>
+        <v>308.46828817976774</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.47426072265108</v>
+        <v>308.46828817976774</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>215.95651956826327</v>
+        <v>312.05512873999754</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.47426072265108</v>
+        <v>308.46828817976774</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.47426072265108</v>
+        <v>308.46828817976774</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>229.30562152861836</v>
+        <v>331.34445484661325</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.86953005916533</v>
+        <v>343.71922169486601</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>248.22588456122219</v>
+        <v>358.68405602298577</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.26136686999772</v>
+        <v>351.510374902526</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>245.74362571560999</v>
+        <v>355.09721546275591</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>248.22588456122219</v>
+        <v>358.68405602298577</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>238.2968491787733</v>
+        <v>344.33669378206633</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>223.40329610509997</v>
+        <v>322.81565042068718</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.88555495071219</v>
+        <v>326.40249098091704</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.85007264193663</v>
+        <v>333.57617210137676</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>233.33233148754886</v>
+        <v>337.16301266160661</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.85007264193663</v>
+        <v>333.57617210137676</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.88555495071219</v>
+        <v>326.40249098091704</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.88555495071219</v>
+        <v>326.40249098091704</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.36781379632438</v>
+        <v>329.9893315411469</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.85007264193663</v>
+        <v>333.57617210137676</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.4387784138755</v>
+        <v>315.64196930022746</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.83404001295114</v>
+        <v>287.31330768887648</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>244.87579255833015</v>
+        <v>353.84320475652117</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.94523553556175</v>
+        <v>340.93863430395385</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.94523553556175</v>
+        <v>340.93863430395385</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>238.68878478597523</v>
+        <v>344.9030370284184</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.94523553556175</v>
+        <v>340.93863430395385</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.94523553556175</v>
+        <v>340.93863430395385</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.44305537373609</v>
+        <v>366.22281851467784</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>262.9084279601301</v>
+        <v>379.90019239958883</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.35492504135084</v>
+        <v>396.44027244645793</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>268.86782654052388</v>
+        <v>388.51146699752883</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>271.61137579093736</v>
+        <v>392.47586972199338</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>274.35492504135084</v>
+        <v>396.44027244645793</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>263.38072803969686</v>
+        <v>380.58266154859967</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>246.91943253721573</v>
+        <v>356.79624520181216</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>249.66298178762926</v>
+        <v>360.76064792627676</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>255.15008028845628</v>
+        <v>368.68945337520591</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>257.89362953886979</v>
+        <v>372.65385609967052</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>255.15008028845628</v>
+        <v>368.68945337520591</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>249.66298178762926</v>
+        <v>360.76064792627676</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>249.66298178762926</v>
+        <v>360.76064792627676</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>252.40653103804274</v>
+        <v>364.72505065074131</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>255.15008028845628</v>
+        <v>368.68945337520591</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.43233403638877</v>
+        <v>348.86743975288306</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>219.76393896168287</v>
+        <v>317.55681376138983</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.89353647856871</v>
+        <v>303.29417550558958</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.23877331619579</v>
+        <v>292.23311511767474</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.23877331619579</v>
+        <v>292.23311511767474</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>204.59038695940734</v>
+        <v>295.63117459578723</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.23877331619579</v>
+        <v>292.23311511767474</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.23877331619579</v>
+        <v>292.23311511767474</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.23690460605948</v>
+        <v>313.90527301258095</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.35008110868296</v>
+        <v>325.62873634250468</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.16136432115786</v>
+        <v>339.80594781124967</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.45813703473473</v>
+        <v>333.00982885502469</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>232.80975067794631</v>
+        <v>336.40788833313724</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.16136432115786</v>
+        <v>339.80594781124967</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.75490974831155</v>
+        <v>326.21370989879972</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>211.64522788904208</v>
+        <v>305.82535303012475</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.99684153225368</v>
+        <v>309.22341250823723</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.70006881867681</v>
+        <v>316.0195314644622</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.05168246188842</v>
+        <v>319.41759094257475</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.70006881867681</v>
+        <v>316.0195314644622</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.99684153225368</v>
+        <v>309.22341250823723</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.99684153225368</v>
+        <v>309.22341250823723</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>216.3484551754652</v>
+        <v>312.62147198634966</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.70006881867681</v>
+        <v>316.0195314644622</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>206.94200060261892</v>
+        <v>299.02923407389972</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.36909053858534</v>
+        <v>272.19155465261986</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>256.53654458491735</v>
+        <v>370.69288117349839</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>250.05491739483122</v>
+        <v>361.32699117262882</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>247.18072294201707</v>
+        <v>357.1738073660469</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>265.51177229629496</v>
+        <v>383.66200034871008</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>275.42787691061255</v>
+        <v>397.99067775195022</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>287.41944528141522</v>
+        <v>415.31838065819409</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>281.67105637578686</v>
+        <v>407.01201304503019</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>284.54525082860107</v>
+        <v>411.16519685161217</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>287.41944528141522</v>
+        <v>415.31838065819409</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>275.92266747015861</v>
+        <v>398.70564543186634</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>258.67750075327365</v>
+        <v>373.78654259237464</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>261.55169520608786</v>
+        <v>377.93972639895662</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>270.17427856453031</v>
+        <v>390.39927781870244</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>261.55169520608786</v>
+        <v>377.93972639895662</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>261.55169520608786</v>
+        <v>377.93972639895662</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>264.42588965890195</v>
+        <v>382.09291020553849</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>267.3000841117161</v>
+        <v>386.24609401212047</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>252.92911184764534</v>
+        <v>365.48017497921074</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.22888843604872</v>
+        <v>332.67856679764645</v>
       </c>
     </row>
   </sheetData>

--- a/data/CS1_3/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260E89F0-8063-40B8-8165-91BCDDA071BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8536DB-5000-4A6A-8F8D-B57D9496515C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -150,12 +150,12 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>2.5000000000000001E-2</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>2.5000000000000001E-2</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -3456,7 +3456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E73F7F-45E0-423B-A01B-B6DF6F75CAB7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -4055,7 +4055,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4677,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E119D8D-D7FD-46DB-8300-FC3B5CEFAAC8}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4766,99 +4766,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>411.88097908166492</v>
+        <v>228.05396499208933</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.85978596227432</v>
+        <v>219.73689568379845</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.85978596227432</v>
+        <v>219.73689568379845</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>401.47443463625422</v>
+        <v>222.2919758661682</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.85978596227432</v>
+        <v>219.73689568379845</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.85978596227432</v>
+        <v>219.73689568379845</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>426.29111149856681</v>
+        <v>236.03269671469198</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>442.21186416883353</v>
+        <v>244.84784224583055</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>461.46486739799343</v>
+        <v>255.50801823697495</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>452.23557005003357</v>
+        <v>250.39785787223545</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>456.85021872401347</v>
+        <v>252.9529380546052</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>461.46486739799343</v>
+        <v>255.50801823697495</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>443.00627270207366</v>
+        <v>245.28769750749595</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>415.31838065819409</v>
+        <v>229.95721641327748</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>419.93302933217399</v>
+        <v>232.5122965956472</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>429.1623266801339</v>
+        <v>237.6224569603867</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>433.7769753541138</v>
+        <v>240.17753714275645</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>429.1623266801339</v>
+        <v>237.6224569603867</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>419.93302933217399</v>
+        <v>232.5122965956472</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>419.93302933217399</v>
+        <v>232.5122965956472</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>424.54767800615389</v>
+        <v>235.06737677801695</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>429.1623266801339</v>
+        <v>237.6224569603867</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>406.08908331023423</v>
+        <v>224.84705604853795</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>369.64285199738504</v>
+        <v>204.66717889459414</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -4867,99 +4867,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>391.28693012758163</v>
+        <v>216.65126674248486</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.01679666416061</v>
+        <v>208.75005089960854</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.01679666416061</v>
+        <v>208.75005089960854</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>381.40071290444149</v>
+        <v>211.17737707285977</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.01679666416061</v>
+        <v>208.75005089960854</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.01679666416061</v>
+        <v>208.75005089960854</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>404.97655592363844</v>
+        <v>224.23106187895735</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>420.10127096039179</v>
+        <v>232.60545013353899</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>438.39162402809376</v>
+        <v>242.73261732512623</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>429.62379154753188</v>
+        <v>237.87796497862368</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>434.00770778781276</v>
+        <v>240.30529115187491</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>438.39162402809376</v>
+        <v>242.73261732512623</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>420.85595906697</v>
+        <v>233.02331263212116</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>394.55246162528437</v>
+        <v>218.45935559261358</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>398.93637786556525</v>
+        <v>220.88668176586484</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>407.70421034612713</v>
+        <v>225.74133411236735</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>412.08812658640807</v>
+        <v>228.16866028561861</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>407.70421034612713</v>
+        <v>225.74133411236735</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>398.93637786556525</v>
+        <v>220.88668176586484</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>398.93637786556525</v>
+        <v>220.88668176586484</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>403.32029410584619</v>
+        <v>223.3140079391161</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>407.70421034612713</v>
+        <v>225.74133411236735</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>385.78462914472249</v>
+        <v>213.60470324611106</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>351.16070939751569</v>
+        <v>194.43381994986441</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -4968,99 +4968,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>432.47502803574821</v>
+        <v>239.4566632416938</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>416.70277526038808</v>
+        <v>230.72374046798839</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>416.70277526038808</v>
+        <v>230.72374046798839</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>421.548156368067</v>
+        <v>233.40657465947663</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>416.70277526038808</v>
+        <v>230.72374046798839</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>416.70277526038808</v>
+        <v>230.72374046798839</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>447.60566707349517</v>
+        <v>247.83433155042661</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>464.32245737727521</v>
+        <v>257.09023435812207</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>484.5381107678931</v>
+        <v>268.28341914882373</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>474.84734855253521</v>
+        <v>262.91775076584725</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>479.69272966021418</v>
+        <v>265.60058495733546</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>484.5381107678931</v>
+        <v>268.28341914882373</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>465.15658633717737</v>
+        <v>257.55208238287076</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>436.08429969110381</v>
+        <v>241.45507723394135</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>440.92968079878273</v>
+        <v>244.13791142542959</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>450.62044301414062</v>
+        <v>249.50357980840607</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>455.46582412181948</v>
+        <v>252.18641399989428</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>450.62044301414062</v>
+        <v>249.50357980840607</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>440.92968079878273</v>
+        <v>244.13791142542959</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>440.92968079878273</v>
+        <v>244.13791142542959</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>445.77506190646159</v>
+        <v>246.8207456169178</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>450.62044301414062</v>
+        <v>249.50357980840607</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>426.39353747574592</v>
+        <v>236.08940885096487</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>388.12499459725433</v>
+        <v>214.90053783932387</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5069,99 +5069,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>370.69288117349839</v>
+        <v>205.24856849288039</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>361.32699117262882</v>
+        <v>200.0627782795514</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>383.66200034871014</v>
+        <v>212.4294270432228</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>397.99067775195016</v>
+        <v>220.3630580212475</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>415.31838065819409</v>
+        <v>229.95721641327748</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>407.01201304503019</v>
+        <v>225.35807208501191</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>411.16519685161211</v>
+        <v>227.65764424914468</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>415.31838065819409</v>
+        <v>229.95721641327748</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>398.70564543186629</v>
+        <v>220.75892775674635</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>373.78654259237464</v>
+        <v>206.9614947719497</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895657</v>
+        <v>209.26106693608247</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>390.39927781870239</v>
+        <v>216.15978342848081</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895657</v>
+        <v>209.26106693608247</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895657</v>
+        <v>209.26106693608247</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>382.09291020553849</v>
+        <v>211.56063910021524</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>365.4801749792108</v>
+        <v>202.36235044368419</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>332.67856679764657</v>
+        <v>184.20046100513474</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -5170,99 +5170,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>453.06907698983144</v>
+        <v>250.8593614912983</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>436.54576455850179</v>
+        <v>241.71058525217833</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>436.54576455850179</v>
+        <v>241.71058525217833</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>441.62187809987972</v>
+        <v>244.52117345278504</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>436.54576455850179</v>
+        <v>241.71058525217833</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>436.54576455850179</v>
+        <v>241.71058525217833</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>468.92022264842353</v>
+        <v>259.63596638616121</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>486.4330505857169</v>
+        <v>269.33262647041363</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>507.61135413779283</v>
+        <v>281.05882006067247</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>497.45912705503696</v>
+        <v>275.43764365945901</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>502.53524059641484</v>
+        <v>278.24823186006574</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>507.61135413779283</v>
+        <v>281.05882006067247</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>487.30689997228109</v>
+        <v>269.81646725824561</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>456.85021872401353</v>
+        <v>252.95293805460523</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>461.92633226539141</v>
+        <v>255.76352625521193</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>472.07855934814728</v>
+        <v>261.38470265642536</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>477.15467288952516</v>
+        <v>264.19529085703209</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>472.07855934814728</v>
+        <v>261.38470265642536</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>461.92633226539141</v>
+        <v>255.76352625521193</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>461.92633226539141</v>
+        <v>255.76352625521193</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>467.00244580676934</v>
+        <v>258.57411445581863</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>472.07855934814728</v>
+        <v>261.38470265642536</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>446.69799164125766</v>
+        <v>247.33176165339177</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>406.60713719712356</v>
+        <v>225.13389678405358</v>
       </c>
     </row>
   </sheetData>
@@ -5363,99 +5363,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>336.99352833954396</v>
+        <v>186.58960772080033</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.70346124186079</v>
+        <v>179.78473283219873</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.70346124186079</v>
+        <v>179.78473283219873</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>328.47908288420797</v>
+        <v>181.87525298141034</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.70346124186079</v>
+        <v>179.78473283219873</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.70346124186079</v>
+        <v>179.78473283219873</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>348.78363668064554</v>
+        <v>193.11766094838433</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>361.80970704722739</v>
+        <v>200.33005274658862</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>377.56216423472182</v>
+        <v>209.05201492116132</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>370.01092095002741</v>
+        <v>204.87097462273809</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>373.78654259237464</v>
+        <v>206.9614947719497</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>377.56216423472182</v>
+        <v>209.05201492116132</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>362.459677665333</v>
+        <v>200.68993432431486</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>339.80594781124967</v>
+        <v>188.14681342904518</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>343.5815694535969</v>
+        <v>190.23733357825679</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>351.13281273829131</v>
+        <v>194.41837387668002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>354.9084343806386</v>
+        <v>196.50889402589164</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>351.13281273829131</v>
+        <v>194.41837387668002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>343.5815694535969</v>
+        <v>190.23733357825679</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>343.5815694535969</v>
+        <v>190.23733357825679</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>347.35719109594407</v>
+        <v>192.32785372746838</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>351.13281273829131</v>
+        <v>194.41837387668002</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>332.25470452655526</v>
+        <v>183.96577313062195</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>302.43506072513316</v>
+        <v>167.45496455012247</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -5464,99 +5464,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>320.14385192256674</v>
+        <v>177.26012733476031</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>308.46828817976774</v>
+        <v>170.79549619058878</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>308.46828817976774</v>
+        <v>170.79549619058878</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>312.05512873999754</v>
+        <v>172.78149033233979</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>308.46828817976774</v>
+        <v>170.79549619058878</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>308.46828817976774</v>
+        <v>170.79549619058878</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>331.34445484661325</v>
+        <v>183.4617779009651</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>343.71922169486601</v>
+        <v>190.31355010925918</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>358.68405602298577</v>
+        <v>198.59941417510325</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>351.510374902526</v>
+        <v>194.62742589160115</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>355.09721546275591</v>
+        <v>196.61342003335224</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>358.68405602298577</v>
+        <v>198.59941417510325</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>344.33669378206633</v>
+        <v>190.65543760809911</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>322.81565042068718</v>
+        <v>178.73947275759292</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>326.40249098091704</v>
+        <v>180.72546689934396</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>333.57617210137676</v>
+        <v>184.69745518284603</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>337.16301266160661</v>
+        <v>186.68344932459706</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>333.57617210137676</v>
+        <v>184.69745518284603</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>326.40249098091704</v>
+        <v>180.72546689934396</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>326.40249098091704</v>
+        <v>180.72546689934396</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>329.9893315411469</v>
+        <v>182.71146104109496</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>333.57617210137676</v>
+        <v>184.69745518284603</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>315.64196930022746</v>
+        <v>174.76748447409085</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>287.31330768887648</v>
+        <v>159.08221632261632</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -5565,99 +5565,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>353.84320475652117</v>
+        <v>195.91908810684038</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>340.93863430395385</v>
+        <v>188.77396947380868</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>340.93863430395385</v>
+        <v>188.77396947380868</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>344.9030370284184</v>
+        <v>190.96901563048087</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>340.93863430395385</v>
+        <v>188.77396947380868</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>340.93863430395385</v>
+        <v>188.77396947380868</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>366.22281851467784</v>
+        <v>202.77354399580355</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>379.90019239958883</v>
+        <v>210.34655538391809</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>396.44027244645793</v>
+        <v>219.50461566721938</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>388.51146699752883</v>
+        <v>215.114523353875</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>392.47586972199338</v>
+        <v>217.30956951054719</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>396.44027244645793</v>
+        <v>219.50461566721938</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>380.58266154859967</v>
+        <v>210.72443104053062</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>356.79624520181216</v>
+        <v>197.55415410049741</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>360.76064792627676</v>
+        <v>199.74920025716963</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>368.68945337520591</v>
+        <v>204.13929257051402</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>372.65385609967052</v>
+        <v>206.33433872718624</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>368.68945337520591</v>
+        <v>204.13929257051402</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>360.76064792627676</v>
+        <v>199.74920025716963</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>360.76064792627676</v>
+        <v>199.74920025716963</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>364.72505065074131</v>
+        <v>201.94424641384182</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>368.68945337520591</v>
+        <v>204.13929257051402</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>348.86743975288306</v>
+        <v>193.16406178715306</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>317.55681376138983</v>
+        <v>175.82771277762859</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5666,99 +5666,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>303.29417550558958</v>
+        <v>167.93064694872029</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.23311511767474</v>
+        <v>161.80625954897889</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.23311511767474</v>
+        <v>161.80625954897889</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>295.63117459578723</v>
+        <v>163.68772768326929</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.23311511767474</v>
+        <v>161.80625954897889</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.23311511767474</v>
+        <v>161.80625954897889</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>313.90527301258095</v>
+        <v>173.80589485354588</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>325.62873634250468</v>
+        <v>180.29704747192977</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>339.80594781124967</v>
+        <v>188.14681342904518</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>333.00982885502469</v>
+        <v>184.38387716046429</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>336.40788833313724</v>
+        <v>186.26534529475475</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>339.80594781124967</v>
+        <v>188.14681342904518</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>326.21370989879972</v>
+        <v>180.62094089188338</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>305.82535303012475</v>
+        <v>169.33213208614066</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>309.22341250823723</v>
+        <v>171.21360022043112</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>316.0195314644622</v>
+        <v>174.97653648901201</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>319.41759094257475</v>
+        <v>176.85800462330249</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>316.0195314644622</v>
+        <v>174.97653648901201</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>309.22341250823723</v>
+        <v>171.21360022043112</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>309.22341250823723</v>
+        <v>171.21360022043112</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>312.62147198634966</v>
+        <v>173.09506835472155</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>316.0195314644622</v>
+        <v>174.97653648901201</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>299.02923407389972</v>
+        <v>165.56919581755974</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>272.19155465261986</v>
+        <v>150.70946809511022</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -5767,99 +5767,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>370.69288117349839</v>
+        <v>205.24856849288039</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>361.32699117262882</v>
+        <v>200.0627782795514</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>383.66200034871008</v>
+        <v>212.42942704322277</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>397.99067775195022</v>
+        <v>220.36305802124753</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>415.31838065819409</v>
+        <v>229.95721641327748</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>407.01201304503019</v>
+        <v>225.35807208501191</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>411.16519685161217</v>
+        <v>227.65764424914471</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>415.31838065819409</v>
+        <v>229.95721641327748</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>398.70564543186634</v>
+        <v>220.75892775674637</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>373.78654259237464</v>
+        <v>206.9614947719497</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895662</v>
+        <v>209.2610669360825</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>390.39927781870244</v>
+        <v>216.15978342848084</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895662</v>
+        <v>209.2610669360825</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895662</v>
+        <v>209.2610669360825</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>382.09291020553849</v>
+        <v>211.56063910021524</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>365.48017497921074</v>
+        <v>202.36235044368416</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>332.67856679764645</v>
+        <v>184.20046100513471</v>
       </c>
     </row>
   </sheetData>
@@ -7181,99 +7181,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>411.88097908166492</v>
+        <v>228.05396499208933</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.85978596227432</v>
+        <v>219.73689568379845</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.85978596227432</v>
+        <v>219.73689568379845</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>401.47443463625422</v>
+        <v>222.2919758661682</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.85978596227432</v>
+        <v>219.73689568379845</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>396.85978596227432</v>
+        <v>219.73689568379845</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>426.29111149856681</v>
+        <v>236.03269671469198</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>442.21186416883353</v>
+        <v>244.84784224583055</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>461.46486739799343</v>
+        <v>255.50801823697495</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>452.23557005003357</v>
+        <v>250.39785787223545</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>456.85021872401347</v>
+        <v>252.9529380546052</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>461.46486739799343</v>
+        <v>255.50801823697495</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>443.00627270207366</v>
+        <v>245.28769750749595</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>415.31838065819409</v>
+        <v>229.95721641327748</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>419.93302933217399</v>
+        <v>232.5122965956472</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>429.1623266801339</v>
+        <v>237.6224569603867</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>433.7769753541138</v>
+        <v>240.17753714275645</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>429.1623266801339</v>
+        <v>237.6224569603867</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>419.93302933217399</v>
+        <v>232.5122965956472</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>419.93302933217399</v>
+        <v>232.5122965956472</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>424.54767800615389</v>
+        <v>235.06737677801695</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>429.1623266801339</v>
+        <v>237.6224569603867</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>406.08908331023423</v>
+        <v>224.84705604853795</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>369.64285199738504</v>
+        <v>204.66717889459414</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -7282,99 +7282,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>391.28693012758163</v>
+        <v>216.65126674248486</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.01679666416061</v>
+        <v>208.75005089960854</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.01679666416061</v>
+        <v>208.75005089960854</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>381.40071290444149</v>
+        <v>211.17737707285977</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.01679666416061</v>
+        <v>208.75005089960854</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.01679666416061</v>
+        <v>208.75005089960854</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>404.97655592363844</v>
+        <v>224.23106187895735</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>420.10127096039179</v>
+        <v>232.60545013353899</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>438.39162402809376</v>
+        <v>242.73261732512623</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>429.62379154753188</v>
+        <v>237.87796497862368</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>434.00770778781276</v>
+        <v>240.30529115187491</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>438.39162402809376</v>
+        <v>242.73261732512623</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>420.85595906697</v>
+        <v>233.02331263212116</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>394.55246162528437</v>
+        <v>218.45935559261358</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>398.93637786556525</v>
+        <v>220.88668176586484</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>407.70421034612713</v>
+        <v>225.74133411236735</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>412.08812658640807</v>
+        <v>228.16866028561861</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>407.70421034612713</v>
+        <v>225.74133411236735</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>398.93637786556525</v>
+        <v>220.88668176586484</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>398.93637786556525</v>
+        <v>220.88668176586484</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>403.32029410584619</v>
+        <v>223.3140079391161</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>407.70421034612713</v>
+        <v>225.74133411236735</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>385.78462914472249</v>
+        <v>213.60470324611106</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>351.16070939751569</v>
+        <v>194.43381994986441</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -7383,99 +7383,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>432.47502803574821</v>
+        <v>239.4566632416938</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>416.70277526038808</v>
+        <v>230.72374046798839</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>416.70277526038808</v>
+        <v>230.72374046798839</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>421.548156368067</v>
+        <v>233.40657465947663</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>416.70277526038808</v>
+        <v>230.72374046798839</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>416.70277526038808</v>
+        <v>230.72374046798839</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>447.60566707349517</v>
+        <v>247.83433155042661</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>464.32245737727521</v>
+        <v>257.09023435812207</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>484.5381107678931</v>
+        <v>268.28341914882373</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>474.84734855253521</v>
+        <v>262.91775076584725</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>479.69272966021418</v>
+        <v>265.60058495733546</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>484.5381107678931</v>
+        <v>268.28341914882373</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>465.15658633717737</v>
+        <v>257.55208238287076</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>436.08429969110381</v>
+        <v>241.45507723394135</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>440.92968079878273</v>
+        <v>244.13791142542959</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>450.62044301414062</v>
+        <v>249.50357980840607</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>455.46582412181948</v>
+        <v>252.18641399989428</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>450.62044301414062</v>
+        <v>249.50357980840607</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>440.92968079878273</v>
+        <v>244.13791142542959</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>440.92968079878273</v>
+        <v>244.13791142542959</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>445.77506190646159</v>
+        <v>246.8207456169178</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>450.62044301414062</v>
+        <v>249.50357980840607</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>426.39353747574592</v>
+        <v>236.08940885096487</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>388.12499459725433</v>
+        <v>214.90053783932387</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -7484,99 +7484,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>370.69288117349839</v>
+        <v>205.24856849288039</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>361.32699117262882</v>
+        <v>200.0627782795514</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>383.66200034871014</v>
+        <v>212.4294270432228</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>397.99067775195016</v>
+        <v>220.3630580212475</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>415.31838065819409</v>
+        <v>229.95721641327748</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>407.01201304503019</v>
+        <v>225.35807208501191</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>411.16519685161211</v>
+        <v>227.65764424914468</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>415.31838065819409</v>
+        <v>229.95721641327748</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>398.70564543186629</v>
+        <v>220.75892775674635</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>373.78654259237464</v>
+        <v>206.9614947719497</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895657</v>
+        <v>209.26106693608247</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>390.39927781870239</v>
+        <v>216.15978342848081</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895657</v>
+        <v>209.26106693608247</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895657</v>
+        <v>209.26106693608247</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>382.09291020553849</v>
+        <v>211.56063910021524</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>365.4801749792108</v>
+        <v>202.36235044368419</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>332.67856679764657</v>
+        <v>184.20046100513474</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -7585,99 +7585,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>453.06907698983144</v>
+        <v>250.8593614912983</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>436.54576455850179</v>
+        <v>241.71058525217833</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>436.54576455850179</v>
+        <v>241.71058525217833</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>441.62187809987972</v>
+        <v>244.52117345278504</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>436.54576455850179</v>
+        <v>241.71058525217833</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>436.54576455850179</v>
+        <v>241.71058525217833</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>468.92022264842353</v>
+        <v>259.63596638616121</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>486.4330505857169</v>
+        <v>269.33262647041363</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>507.61135413779283</v>
+        <v>281.05882006067247</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>497.45912705503696</v>
+        <v>275.43764365945901</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>502.53524059641484</v>
+        <v>278.24823186006574</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>507.61135413779283</v>
+        <v>281.05882006067247</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>487.30689997228109</v>
+        <v>269.81646725824561</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>456.85021872401353</v>
+        <v>252.95293805460523</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>461.92633226539141</v>
+        <v>255.76352625521193</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>472.07855934814728</v>
+        <v>261.38470265642536</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>477.15467288952516</v>
+        <v>264.19529085703209</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>472.07855934814728</v>
+        <v>261.38470265642536</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>461.92633226539141</v>
+        <v>255.76352625521193</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>461.92633226539141</v>
+        <v>255.76352625521193</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>467.00244580676934</v>
+        <v>258.57411445581863</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>472.07855934814728</v>
+        <v>261.38470265642536</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>446.69799164125766</v>
+        <v>247.33176165339177</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>406.60713719712356</v>
+        <v>225.13389678405358</v>
       </c>
     </row>
   </sheetData>
@@ -7778,99 +7778,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>336.99352833954396</v>
+        <v>186.58960772080033</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.70346124186079</v>
+        <v>179.78473283219873</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.70346124186079</v>
+        <v>179.78473283219873</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>328.47908288420797</v>
+        <v>181.87525298141034</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.70346124186079</v>
+        <v>179.78473283219873</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>324.70346124186079</v>
+        <v>179.78473283219873</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>348.78363668064554</v>
+        <v>193.11766094838433</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>361.80970704722739</v>
+        <v>200.33005274658862</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>377.56216423472182</v>
+        <v>209.05201492116132</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>370.01092095002741</v>
+        <v>204.87097462273809</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>373.78654259237464</v>
+        <v>206.9614947719497</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>377.56216423472182</v>
+        <v>209.05201492116132</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>362.459677665333</v>
+        <v>200.68993432431486</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>339.80594781124967</v>
+        <v>188.14681342904518</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>343.5815694535969</v>
+        <v>190.23733357825679</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>351.13281273829131</v>
+        <v>194.41837387668002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>354.9084343806386</v>
+        <v>196.50889402589164</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>351.13281273829131</v>
+        <v>194.41837387668002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>343.5815694535969</v>
+        <v>190.23733357825679</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>343.5815694535969</v>
+        <v>190.23733357825679</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>347.35719109594407</v>
+        <v>192.32785372746838</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>351.13281273829131</v>
+        <v>194.41837387668002</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>332.25470452655526</v>
+        <v>183.96577313062195</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>302.43506072513316</v>
+        <v>167.45496455012247</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -7879,99 +7879,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>320.14385192256674</v>
+        <v>177.26012733476031</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>308.46828817976774</v>
+        <v>170.79549619058878</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>308.46828817976774</v>
+        <v>170.79549619058878</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>312.05512873999754</v>
+        <v>172.78149033233979</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>308.46828817976774</v>
+        <v>170.79549619058878</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>308.46828817976774</v>
+        <v>170.79549619058878</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>331.34445484661325</v>
+        <v>183.4617779009651</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>343.71922169486601</v>
+        <v>190.31355010925918</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>358.68405602298577</v>
+        <v>198.59941417510325</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>351.510374902526</v>
+        <v>194.62742589160115</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>355.09721546275591</v>
+        <v>196.61342003335224</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>358.68405602298577</v>
+        <v>198.59941417510325</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>344.33669378206633</v>
+        <v>190.65543760809911</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>322.81565042068718</v>
+        <v>178.73947275759292</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>326.40249098091704</v>
+        <v>180.72546689934396</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>333.57617210137676</v>
+        <v>184.69745518284603</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>337.16301266160661</v>
+        <v>186.68344932459706</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>333.57617210137676</v>
+        <v>184.69745518284603</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>326.40249098091704</v>
+        <v>180.72546689934396</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>326.40249098091704</v>
+        <v>180.72546689934396</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>329.9893315411469</v>
+        <v>182.71146104109496</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>333.57617210137676</v>
+        <v>184.69745518284603</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>315.64196930022746</v>
+        <v>174.76748447409085</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>287.31330768887648</v>
+        <v>159.08221632261632</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -7980,99 +7980,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>353.84320475652117</v>
+        <v>195.91908810684038</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>340.93863430395385</v>
+        <v>188.77396947380868</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>340.93863430395385</v>
+        <v>188.77396947380868</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>344.9030370284184</v>
+        <v>190.96901563048087</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>340.93863430395385</v>
+        <v>188.77396947380868</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>340.93863430395385</v>
+        <v>188.77396947380868</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>366.22281851467784</v>
+        <v>202.77354399580355</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>379.90019239958883</v>
+        <v>210.34655538391809</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>396.44027244645793</v>
+        <v>219.50461566721938</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>388.51146699752883</v>
+        <v>215.114523353875</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>392.47586972199338</v>
+        <v>217.30956951054719</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>396.44027244645793</v>
+        <v>219.50461566721938</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>380.58266154859967</v>
+        <v>210.72443104053062</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>356.79624520181216</v>
+        <v>197.55415410049741</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>360.76064792627676</v>
+        <v>199.74920025716963</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>368.68945337520591</v>
+        <v>204.13929257051402</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>372.65385609967052</v>
+        <v>206.33433872718624</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>368.68945337520591</v>
+        <v>204.13929257051402</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>360.76064792627676</v>
+        <v>199.74920025716963</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>360.76064792627676</v>
+        <v>199.74920025716963</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>364.72505065074131</v>
+        <v>201.94424641384182</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>368.68945337520591</v>
+        <v>204.13929257051402</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>348.86743975288306</v>
+        <v>193.16406178715306</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>317.55681376138983</v>
+        <v>175.82771277762859</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -8081,99 +8081,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>303.29417550558958</v>
+        <v>167.93064694872029</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.23311511767474</v>
+        <v>161.80625954897889</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.23311511767474</v>
+        <v>161.80625954897889</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>295.63117459578723</v>
+        <v>163.68772768326929</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.23311511767474</v>
+        <v>161.80625954897889</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>292.23311511767474</v>
+        <v>161.80625954897889</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>313.90527301258095</v>
+        <v>173.80589485354588</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>325.62873634250468</v>
+        <v>180.29704747192977</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>339.80594781124967</v>
+        <v>188.14681342904518</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>333.00982885502469</v>
+        <v>184.38387716046429</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>336.40788833313724</v>
+        <v>186.26534529475475</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>339.80594781124967</v>
+        <v>188.14681342904518</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>326.21370989879972</v>
+        <v>180.62094089188338</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>305.82535303012475</v>
+        <v>169.33213208614066</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>309.22341250823723</v>
+        <v>171.21360022043112</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>316.0195314644622</v>
+        <v>174.97653648901201</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>319.41759094257475</v>
+        <v>176.85800462330249</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>316.0195314644622</v>
+        <v>174.97653648901201</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>309.22341250823723</v>
+        <v>171.21360022043112</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>309.22341250823723</v>
+        <v>171.21360022043112</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>312.62147198634966</v>
+        <v>173.09506835472155</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>316.0195314644622</v>
+        <v>174.97653648901201</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>299.02923407389972</v>
+        <v>165.56919581755974</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>272.19155465261986</v>
+        <v>150.70946809511022</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -8182,99 +8182,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>370.69288117349839</v>
+        <v>205.24856849288039</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>361.32699117262882</v>
+        <v>200.0627782795514</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>357.1738073660469</v>
+        <v>197.76320611541863</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>383.66200034871008</v>
+        <v>212.42942704322277</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>397.99067775195022</v>
+        <v>220.36305802124753</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>415.31838065819409</v>
+        <v>229.95721641327748</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>407.01201304503019</v>
+        <v>225.35807208501191</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>411.16519685161217</v>
+        <v>227.65764424914471</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>415.31838065819409</v>
+        <v>229.95721641327748</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>398.70564543186634</v>
+        <v>220.75892775674637</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>373.78654259237464</v>
+        <v>206.9614947719497</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895662</v>
+        <v>209.2610669360825</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>390.39927781870244</v>
+        <v>216.15978342848084</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895662</v>
+        <v>209.2610669360825</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>377.93972639895662</v>
+        <v>209.2610669360825</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>382.09291020553849</v>
+        <v>211.56063910021524</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>386.24609401212047</v>
+        <v>213.86021126434804</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>365.48017497921074</v>
+        <v>202.36235044368416</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>332.67856679764645</v>
+        <v>184.20046100513471</v>
       </c>
     </row>
   </sheetData>

--- a/data/CS1_3/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8536DB-5000-4A6A-8F8D-B57D9496515C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C42A975-F8F2-4DB6-A292-2EF2EBCC4B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -3405,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3419,16 +3419,16 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D1" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E1" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F1" s="1">
         <v>0.1</v>
@@ -4677,7 +4677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E119D8D-D7FD-46DB-8300-FC3B5CEFAAC8}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>

--- a/data/CS1_3/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C42A975-F8F2-4DB6-A292-2EF2EBCC4B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A477FF-9604-457E-A8F3-CEBB0386FD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -162,373 +162,325 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>178.51022176578198</v>
+            <v>33</v>
           </cell>
           <cell r="C2">
-            <v>170.09531756474857</v>
+            <v>25.9</v>
           </cell>
           <cell r="D2">
-            <v>166.56503738887642</v>
+            <v>25.8</v>
           </cell>
           <cell r="E2">
-            <v>161.7510189672326</v>
+            <v>25.8</v>
           </cell>
           <cell r="F2">
-            <v>163.35569177444719</v>
+            <v>25.6</v>
           </cell>
           <cell r="G2">
-            <v>170.26862222792772</v>
+            <v>25.6</v>
           </cell>
           <cell r="H2">
-            <v>184.75560833146122</v>
+            <v>24.83</v>
           </cell>
           <cell r="I2">
-            <v>191.65570140248403</v>
+            <v>24.83</v>
           </cell>
           <cell r="J2">
-            <v>200</v>
+            <v>24.83</v>
           </cell>
           <cell r="K2">
-            <v>189.62739497416479</v>
+            <v>24.5</v>
           </cell>
           <cell r="L2">
-            <v>185.32045315960079</v>
+            <v>24.5</v>
           </cell>
           <cell r="M2">
-            <v>168.31092140312595</v>
+            <v>24.83</v>
           </cell>
           <cell r="N2">
-            <v>163.65095157097468</v>
+            <v>25</v>
           </cell>
           <cell r="O2">
-            <v>139.86328187682534</v>
+            <v>25.6</v>
           </cell>
           <cell r="P2">
-            <v>145.51173015822073</v>
+            <v>25.43</v>
           </cell>
           <cell r="Q2">
-            <v>131.94903559164285</v>
+            <v>24</v>
           </cell>
           <cell r="R2">
-            <v>128.37382457716873</v>
+            <v>22.1</v>
           </cell>
           <cell r="S2">
-            <v>127.69344330690973</v>
+            <v>21.4</v>
           </cell>
           <cell r="T2">
-            <v>129.37514040887064</v>
+            <v>24.83</v>
           </cell>
           <cell r="U2">
-            <v>146.94309830225617</v>
+            <v>25.2</v>
           </cell>
           <cell r="V2">
-            <v>178.09942552713505</v>
+            <v>25.6</v>
           </cell>
           <cell r="W2">
-            <v>177.86193395166728</v>
+            <v>29.93</v>
           </cell>
           <cell r="X2">
-            <v>168.41362046278766</v>
+            <v>32.93</v>
           </cell>
           <cell r="Y2">
-            <v>160.20411438107772</v>
+            <v>29.9</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>169.58471067749286</v>
+            <v>31.35</v>
           </cell>
           <cell r="C3">
-            <v>161.59055168651113</v>
+            <v>27.68</v>
           </cell>
           <cell r="D3">
-            <v>158.2367855194326</v>
+            <v>26.73</v>
           </cell>
           <cell r="E3">
-            <v>153.66346801887096</v>
+            <v>26.51</v>
           </cell>
           <cell r="F3">
-            <v>155.18790718572484</v>
+            <v>26.54</v>
           </cell>
           <cell r="G3">
-            <v>161.75519111653134</v>
+            <v>27.59</v>
           </cell>
           <cell r="H3">
-            <v>175.51782791488816</v>
+            <v>33.799999999999997</v>
           </cell>
           <cell r="I3">
-            <v>182.07291633235982</v>
+            <v>38.19</v>
           </cell>
           <cell r="J3">
-            <v>190</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="K3">
-            <v>180.14602522545653</v>
+            <v>38.43</v>
           </cell>
           <cell r="L3">
-            <v>176.05443050162074</v>
+            <v>38.24</v>
           </cell>
           <cell r="M3">
-            <v>159.89537533296965</v>
+            <v>38</v>
           </cell>
           <cell r="N3">
-            <v>155.46840399242595</v>
+            <v>38.43</v>
           </cell>
           <cell r="O3">
-            <v>132.87011778298407</v>
+            <v>38.47</v>
           </cell>
           <cell r="P3">
-            <v>138.23614365030969</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="Q3">
-            <v>125.35158381206071</v>
+            <v>37.950000000000003</v>
           </cell>
           <cell r="R3">
-            <v>121.95513334831028</v>
+            <v>38.43</v>
           </cell>
           <cell r="S3">
-            <v>121.30877114156424</v>
+            <v>38.549999999999997</v>
           </cell>
           <cell r="T3">
-            <v>122.9063833884271</v>
+            <v>40.51</v>
           </cell>
           <cell r="U3">
-            <v>139.59594338714336</v>
+            <v>42.93</v>
           </cell>
           <cell r="V3">
-            <v>169.19445425077831</v>
+            <v>41.81</v>
           </cell>
           <cell r="W3">
-            <v>168.96883725408392</v>
+            <v>40.479999999999997</v>
           </cell>
           <cell r="X3">
-            <v>159.99293943964827</v>
+            <v>39.72</v>
           </cell>
           <cell r="Y3">
-            <v>152.19390866202383</v>
+            <v>37.950000000000003</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>187.43573285407109</v>
+            <v>33.159999999999997</v>
           </cell>
           <cell r="C4">
-            <v>178.600083442986</v>
+            <v>28.6</v>
           </cell>
           <cell r="D4">
-            <v>174.89328925832024</v>
+            <v>27</v>
           </cell>
           <cell r="E4">
-            <v>169.83856991559423</v>
+            <v>26.5</v>
           </cell>
           <cell r="F4">
-            <v>171.52347636316955</v>
+            <v>27.5</v>
           </cell>
           <cell r="G4">
-            <v>178.78205333932411</v>
+            <v>28.03</v>
           </cell>
           <cell r="H4">
-            <v>193.99338874803428</v>
+            <v>33</v>
           </cell>
           <cell r="I4">
-            <v>201.23848647260823</v>
+            <v>37.74</v>
           </cell>
           <cell r="J4">
-            <v>210</v>
+            <v>39.79</v>
           </cell>
           <cell r="K4">
-            <v>199.10876472287305</v>
+            <v>40.49</v>
           </cell>
           <cell r="L4">
-            <v>194.58647581758083</v>
+            <v>39.82</v>
           </cell>
           <cell r="M4">
-            <v>176.72646747328224</v>
+            <v>38.08</v>
           </cell>
           <cell r="N4">
-            <v>171.83349914952342</v>
+            <v>37.21</v>
           </cell>
           <cell r="O4">
-            <v>146.85644597066661</v>
+            <v>34.619999999999997</v>
           </cell>
           <cell r="P4">
-            <v>152.78731666613177</v>
+            <v>33.18</v>
           </cell>
           <cell r="Q4">
-            <v>138.546487371225</v>
+            <v>30</v>
           </cell>
           <cell r="R4">
-            <v>134.79251580602718</v>
+            <v>29</v>
           </cell>
           <cell r="S4">
-            <v>134.07811547225521</v>
+            <v>30.22</v>
           </cell>
           <cell r="T4">
-            <v>135.84389742931418</v>
+            <v>32.479999999999997</v>
           </cell>
           <cell r="U4">
-            <v>154.29025321736898</v>
+            <v>36.200000000000003</v>
           </cell>
           <cell r="V4">
-            <v>187.0043968034918</v>
+            <v>41.7</v>
           </cell>
           <cell r="W4">
-            <v>186.75503064925064</v>
+            <v>43.82</v>
           </cell>
           <cell r="X4">
-            <v>176.83430148592706</v>
+            <v>42.23</v>
           </cell>
           <cell r="Y4">
-            <v>168.2143201001316</v>
+            <v>37.57</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>160.65919958920378</v>
+            <v>39.9</v>
           </cell>
           <cell r="C5">
-            <v>153.08578580827373</v>
+            <v>38.24</v>
           </cell>
           <cell r="D5">
-            <v>149.90853364998878</v>
+            <v>35.44</v>
           </cell>
           <cell r="E5">
-            <v>145.57591707050935</v>
+            <v>34.299999999999997</v>
           </cell>
           <cell r="F5">
-            <v>147.02012259700248</v>
+            <v>34.15</v>
           </cell>
           <cell r="G5">
-            <v>153.24176000513495</v>
+            <v>34.03</v>
           </cell>
           <cell r="H5">
-            <v>166.2800474983151</v>
+            <v>34.31</v>
           </cell>
           <cell r="I5">
-            <v>172.49013126223562</v>
+            <v>37.020000000000003</v>
           </cell>
           <cell r="J5">
-            <v>180</v>
+            <v>39.76</v>
           </cell>
           <cell r="K5">
-            <v>170.66465547674832</v>
+            <v>40.39</v>
           </cell>
           <cell r="L5">
-            <v>166.78840784364073</v>
+            <v>40.29</v>
           </cell>
           <cell r="M5">
-            <v>151.47982926281335</v>
+            <v>39.549999999999997</v>
           </cell>
           <cell r="N5">
-            <v>147.28585641387721</v>
+            <v>39.619999999999997</v>
           </cell>
           <cell r="O5">
-            <v>125.87695368914281</v>
+            <v>36.97</v>
           </cell>
           <cell r="P5">
-            <v>130.96055714239867</v>
+            <v>35.770000000000003</v>
           </cell>
           <cell r="Q5">
-            <v>118.75413203247857</v>
+            <v>34.5</v>
           </cell>
           <cell r="R5">
-            <v>115.53644211945186</v>
+            <v>34.4</v>
           </cell>
           <cell r="S5">
-            <v>114.92409897621876</v>
+            <v>35.24</v>
           </cell>
           <cell r="T5">
-            <v>116.43762636798357</v>
+            <v>40.619999999999997</v>
           </cell>
           <cell r="U5">
-            <v>132.24878847203055</v>
+            <v>51.02</v>
           </cell>
           <cell r="V5">
-            <v>160.28948297442156</v>
+            <v>51.05</v>
           </cell>
           <cell r="W5">
-            <v>160.07574055650056</v>
+            <v>50.04</v>
           </cell>
           <cell r="X5">
-            <v>151.5722584165089</v>
+            <v>46.51</v>
           </cell>
           <cell r="Y5">
-            <v>144.18370294296994</v>
+            <v>40.97</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="B6">
-            <v>196.3612439423602</v>
-          </cell>
-          <cell r="C6">
-            <v>187.10484932122344</v>
-          </cell>
-          <cell r="D6">
-            <v>183.22154112776408</v>
-          </cell>
-          <cell r="E6">
-            <v>177.92612086395587</v>
-          </cell>
-          <cell r="F6">
-            <v>179.69126095189193</v>
-          </cell>
-          <cell r="G6">
-            <v>187.29548445072052</v>
-          </cell>
-          <cell r="H6">
-            <v>203.23116916460737</v>
-          </cell>
-          <cell r="I6">
-            <v>210.82127154273243</v>
-          </cell>
-          <cell r="J6">
-            <v>220.00000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>208.59013447158128</v>
-          </cell>
-          <cell r="L6">
-            <v>203.85249847556088</v>
-          </cell>
-          <cell r="M6">
-            <v>185.14201354343857</v>
-          </cell>
-          <cell r="N6">
-            <v>180.01604672807215</v>
-          </cell>
-          <cell r="O6">
-            <v>153.84961006450789</v>
-          </cell>
-          <cell r="P6">
-            <v>160.06290317404282</v>
-          </cell>
-          <cell r="Q6">
-            <v>145.14393915080714</v>
-          </cell>
-          <cell r="R6">
-            <v>141.21120703488563</v>
-          </cell>
-          <cell r="S6">
-            <v>140.46278763760071</v>
-          </cell>
-          <cell r="T6">
-            <v>142.3126544497577</v>
-          </cell>
-          <cell r="U6">
-            <v>161.6374081324818</v>
-          </cell>
-          <cell r="V6">
-            <v>195.90936807984858</v>
-          </cell>
-          <cell r="W6">
-            <v>195.64812734683403</v>
-          </cell>
-          <cell r="X6">
-            <v>185.25498250906645</v>
-          </cell>
-          <cell r="Y6">
-            <v>176.22452581918552</v>
-          </cell>
+          <cell r="B6"/>
+          <cell r="C6"/>
+          <cell r="D6"/>
+          <cell r="E6"/>
+          <cell r="F6"/>
+          <cell r="G6"/>
+          <cell r="H6"/>
+          <cell r="I6"/>
+          <cell r="J6"/>
+          <cell r="K6"/>
+          <cell r="L6"/>
+          <cell r="M6"/>
+          <cell r="N6"/>
+          <cell r="O6"/>
+          <cell r="P6"/>
+          <cell r="Q6"/>
+          <cell r="R6"/>
+          <cell r="S6"/>
+          <cell r="T6"/>
+          <cell r="U6"/>
+          <cell r="V6"/>
+          <cell r="W6"/>
+          <cell r="X6"/>
+          <cell r="Y6"/>
         </row>
       </sheetData>
       <sheetData sheetId="2">
@@ -1650,745 +1602,527 @@
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>178.51022176578198</v>
+            <v>31.35</v>
           </cell>
           <cell r="C2">
-            <v>170.09531756474857</v>
+            <v>27.68</v>
           </cell>
           <cell r="D2">
-            <v>166.56503738887642</v>
+            <v>26.73</v>
           </cell>
           <cell r="E2">
-            <v>161.7510189672326</v>
+            <v>26.51</v>
           </cell>
           <cell r="F2">
-            <v>163.35569177444719</v>
+            <v>26.54</v>
           </cell>
           <cell r="G2">
-            <v>170.26862222792772</v>
+            <v>27.59</v>
           </cell>
           <cell r="H2">
-            <v>184.75560833146122</v>
+            <v>33.799999999999997</v>
           </cell>
           <cell r="I2">
-            <v>191.65570140248403</v>
+            <v>38.19</v>
           </cell>
           <cell r="J2">
-            <v>200</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="K2">
-            <v>189.62739497416479</v>
+            <v>38.43</v>
           </cell>
           <cell r="L2">
-            <v>185.32045315960079</v>
+            <v>38.24</v>
           </cell>
           <cell r="M2">
-            <v>168.31092140312595</v>
+            <v>38</v>
           </cell>
           <cell r="N2">
-            <v>163.65095157097468</v>
+            <v>38.43</v>
           </cell>
           <cell r="O2">
-            <v>139.86328187682534</v>
+            <v>38.47</v>
           </cell>
           <cell r="P2">
-            <v>145.51173015822073</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="Q2">
-            <v>131.94903559164285</v>
+            <v>37.950000000000003</v>
           </cell>
           <cell r="R2">
-            <v>128.37382457716873</v>
+            <v>38.43</v>
           </cell>
           <cell r="S2">
-            <v>127.69344330690973</v>
+            <v>38.549999999999997</v>
           </cell>
           <cell r="T2">
-            <v>129.37514040887064</v>
+            <v>40.51</v>
           </cell>
           <cell r="U2">
-            <v>146.94309830225617</v>
+            <v>42.93</v>
           </cell>
           <cell r="V2">
-            <v>178.09942552713505</v>
+            <v>41.81</v>
           </cell>
           <cell r="W2">
-            <v>177.86193395166728</v>
+            <v>40.479999999999997</v>
           </cell>
           <cell r="X2">
-            <v>168.41362046278766</v>
+            <v>39.72</v>
           </cell>
           <cell r="Y2">
-            <v>160.20411438107772</v>
+            <v>37.950000000000003</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>169.58471067749286</v>
+            <v>33.159999999999997</v>
           </cell>
           <cell r="C3">
-            <v>161.59055168651113</v>
+            <v>28.6</v>
           </cell>
           <cell r="D3">
-            <v>158.2367855194326</v>
+            <v>27</v>
           </cell>
           <cell r="E3">
-            <v>153.66346801887096</v>
+            <v>26.5</v>
           </cell>
           <cell r="F3">
-            <v>155.18790718572484</v>
+            <v>27.5</v>
           </cell>
           <cell r="G3">
-            <v>161.75519111653134</v>
+            <v>28.03</v>
           </cell>
           <cell r="H3">
-            <v>175.51782791488816</v>
+            <v>33</v>
           </cell>
           <cell r="I3">
-            <v>182.07291633235982</v>
+            <v>37.74</v>
           </cell>
           <cell r="J3">
-            <v>190</v>
+            <v>39.79</v>
           </cell>
           <cell r="K3">
-            <v>180.14602522545653</v>
+            <v>40.49</v>
           </cell>
           <cell r="L3">
-            <v>176.05443050162074</v>
+            <v>39.82</v>
           </cell>
           <cell r="M3">
-            <v>159.89537533296965</v>
+            <v>38.08</v>
           </cell>
           <cell r="N3">
-            <v>155.46840399242595</v>
+            <v>37.21</v>
           </cell>
           <cell r="O3">
-            <v>132.87011778298407</v>
+            <v>34.619999999999997</v>
           </cell>
           <cell r="P3">
-            <v>138.23614365030969</v>
+            <v>33.18</v>
           </cell>
           <cell r="Q3">
-            <v>125.35158381206071</v>
+            <v>30</v>
           </cell>
           <cell r="R3">
-            <v>121.95513334831028</v>
+            <v>29</v>
           </cell>
           <cell r="S3">
-            <v>121.30877114156424</v>
+            <v>30.22</v>
           </cell>
           <cell r="T3">
-            <v>122.9063833884271</v>
+            <v>32.479999999999997</v>
           </cell>
           <cell r="U3">
-            <v>139.59594338714336</v>
+            <v>36.200000000000003</v>
           </cell>
           <cell r="V3">
-            <v>169.19445425077831</v>
+            <v>41.7</v>
           </cell>
           <cell r="W3">
-            <v>168.96883725408392</v>
+            <v>43.82</v>
           </cell>
           <cell r="X3">
-            <v>159.99293943964827</v>
+            <v>42.23</v>
           </cell>
           <cell r="Y3">
-            <v>152.19390866202383</v>
+            <v>37.57</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>187.43573285407109</v>
+            <v>39.9</v>
           </cell>
           <cell r="C4">
-            <v>178.600083442986</v>
+            <v>38.24</v>
           </cell>
           <cell r="D4">
-            <v>174.89328925832024</v>
+            <v>35.44</v>
           </cell>
           <cell r="E4">
-            <v>169.83856991559423</v>
+            <v>34.299999999999997</v>
           </cell>
           <cell r="F4">
-            <v>171.52347636316955</v>
+            <v>34.15</v>
           </cell>
           <cell r="G4">
-            <v>178.78205333932411</v>
+            <v>34.03</v>
           </cell>
           <cell r="H4">
-            <v>193.99338874803428</v>
+            <v>34.31</v>
           </cell>
           <cell r="I4">
-            <v>201.23848647260823</v>
+            <v>37.020000000000003</v>
           </cell>
           <cell r="J4">
-            <v>210</v>
+            <v>39.76</v>
           </cell>
           <cell r="K4">
-            <v>199.10876472287305</v>
+            <v>40.39</v>
           </cell>
           <cell r="L4">
-            <v>194.58647581758083</v>
+            <v>40.29</v>
           </cell>
           <cell r="M4">
-            <v>176.72646747328224</v>
+            <v>39.549999999999997</v>
           </cell>
           <cell r="N4">
-            <v>171.83349914952342</v>
+            <v>39.619999999999997</v>
           </cell>
           <cell r="O4">
-            <v>146.85644597066661</v>
+            <v>36.97</v>
           </cell>
           <cell r="P4">
-            <v>152.78731666613177</v>
+            <v>35.770000000000003</v>
           </cell>
           <cell r="Q4">
-            <v>138.546487371225</v>
+            <v>34.5</v>
           </cell>
           <cell r="R4">
-            <v>134.79251580602718</v>
+            <v>34.4</v>
           </cell>
           <cell r="S4">
-            <v>134.07811547225521</v>
+            <v>35.24</v>
           </cell>
           <cell r="T4">
-            <v>135.84389742931418</v>
+            <v>40.619999999999997</v>
           </cell>
           <cell r="U4">
-            <v>154.29025321736898</v>
+            <v>51.02</v>
           </cell>
           <cell r="V4">
-            <v>187.0043968034918</v>
+            <v>51.05</v>
           </cell>
           <cell r="W4">
-            <v>186.75503064925064</v>
+            <v>50.04</v>
           </cell>
           <cell r="X4">
-            <v>176.83430148592706</v>
+            <v>46.51</v>
           </cell>
           <cell r="Y4">
-            <v>168.2143201001316</v>
+            <v>40.97</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="B5">
-            <v>160.65919958920378</v>
-          </cell>
-          <cell r="C5">
-            <v>153.08578580827373</v>
-          </cell>
-          <cell r="D5">
-            <v>149.90853364998878</v>
-          </cell>
-          <cell r="E5">
-            <v>145.57591707050935</v>
-          </cell>
-          <cell r="F5">
-            <v>147.02012259700248</v>
-          </cell>
-          <cell r="G5">
-            <v>153.24176000513495</v>
-          </cell>
-          <cell r="H5">
-            <v>166.2800474983151</v>
-          </cell>
-          <cell r="I5">
-            <v>172.49013126223562</v>
-          </cell>
-          <cell r="J5">
-            <v>180</v>
-          </cell>
-          <cell r="K5">
-            <v>170.66465547674832</v>
-          </cell>
-          <cell r="L5">
-            <v>166.78840784364073</v>
-          </cell>
-          <cell r="M5">
-            <v>151.47982926281335</v>
-          </cell>
-          <cell r="N5">
-            <v>147.28585641387721</v>
-          </cell>
-          <cell r="O5">
-            <v>125.87695368914281</v>
-          </cell>
-          <cell r="P5">
-            <v>130.96055714239867</v>
-          </cell>
-          <cell r="Q5">
-            <v>118.75413203247857</v>
-          </cell>
-          <cell r="R5">
-            <v>115.53644211945186</v>
-          </cell>
-          <cell r="S5">
-            <v>114.92409897621876</v>
-          </cell>
-          <cell r="T5">
-            <v>116.43762636798357</v>
-          </cell>
-          <cell r="U5">
-            <v>132.24878847203055</v>
-          </cell>
-          <cell r="V5">
-            <v>160.28948297442156</v>
-          </cell>
-          <cell r="W5">
-            <v>160.07574055650056</v>
-          </cell>
-          <cell r="X5">
-            <v>151.5722584165089</v>
-          </cell>
-          <cell r="Y5">
-            <v>144.18370294296994</v>
-          </cell>
+          <cell r="B5"/>
+          <cell r="C5"/>
+          <cell r="D5"/>
+          <cell r="E5"/>
+          <cell r="F5"/>
+          <cell r="G5"/>
+          <cell r="H5"/>
+          <cell r="I5"/>
+          <cell r="J5"/>
+          <cell r="K5"/>
+          <cell r="L5"/>
+          <cell r="M5"/>
+          <cell r="N5"/>
+          <cell r="O5"/>
+          <cell r="P5"/>
+          <cell r="Q5"/>
+          <cell r="R5"/>
+          <cell r="S5"/>
+          <cell r="T5"/>
+          <cell r="U5"/>
+          <cell r="V5"/>
+          <cell r="W5"/>
+          <cell r="X5"/>
+          <cell r="Y5"/>
         </row>
         <row r="6">
-          <cell r="B6">
-            <v>196.3612439423602</v>
-          </cell>
-          <cell r="C6">
-            <v>187.10484932122344</v>
-          </cell>
-          <cell r="D6">
-            <v>183.22154112776408</v>
-          </cell>
-          <cell r="E6">
-            <v>177.92612086395587</v>
-          </cell>
-          <cell r="F6">
-            <v>179.69126095189193</v>
-          </cell>
-          <cell r="G6">
-            <v>187.29548445072052</v>
-          </cell>
-          <cell r="H6">
-            <v>203.23116916460737</v>
-          </cell>
-          <cell r="I6">
-            <v>210.82127154273243</v>
-          </cell>
-          <cell r="J6">
-            <v>220.00000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>208.59013447158128</v>
-          </cell>
-          <cell r="L6">
-            <v>203.85249847556088</v>
-          </cell>
-          <cell r="M6">
-            <v>185.14201354343857</v>
-          </cell>
-          <cell r="N6">
-            <v>180.01604672807215</v>
-          </cell>
-          <cell r="O6">
-            <v>153.84961006450789</v>
-          </cell>
-          <cell r="P6">
-            <v>160.06290317404282</v>
-          </cell>
-          <cell r="Q6">
-            <v>145.14393915080714</v>
-          </cell>
-          <cell r="R6">
-            <v>141.21120703488563</v>
-          </cell>
-          <cell r="S6">
-            <v>140.46278763760071</v>
-          </cell>
-          <cell r="T6">
-            <v>142.3126544497577</v>
-          </cell>
-          <cell r="U6">
-            <v>161.6374081324818</v>
-          </cell>
-          <cell r="V6">
-            <v>195.90936807984858</v>
-          </cell>
-          <cell r="W6">
-            <v>195.64812734683403</v>
-          </cell>
-          <cell r="X6">
-            <v>185.25498250906645</v>
-          </cell>
-          <cell r="Y6">
-            <v>176.22452581918552</v>
-          </cell>
+          <cell r="B6"/>
+          <cell r="C6"/>
+          <cell r="D6"/>
+          <cell r="E6"/>
+          <cell r="F6"/>
+          <cell r="G6"/>
+          <cell r="H6"/>
+          <cell r="I6"/>
+          <cell r="J6"/>
+          <cell r="K6"/>
+          <cell r="L6"/>
+          <cell r="M6"/>
+          <cell r="N6"/>
+          <cell r="O6"/>
+          <cell r="P6"/>
+          <cell r="Q6"/>
+          <cell r="R6"/>
+          <cell r="S6"/>
+          <cell r="T6"/>
+          <cell r="U6"/>
+          <cell r="V6"/>
+          <cell r="W6"/>
+          <cell r="X6"/>
+          <cell r="Y6"/>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>35.702044353156396</v>
+            <v>13.5</v>
           </cell>
           <cell r="C2">
-            <v>35.702044353156396</v>
+            <v>14.88</v>
           </cell>
           <cell r="D2">
-            <v>36</v>
+            <v>8.92</v>
           </cell>
           <cell r="E2">
-            <v>36.4</v>
+            <v>8.93</v>
           </cell>
           <cell r="F2">
-            <v>35.702044353156396</v>
+            <v>8.93</v>
           </cell>
           <cell r="G2">
-            <v>40</v>
+            <v>8.8800000000000008</v>
           </cell>
           <cell r="H2">
-            <v>36.4</v>
+            <v>12.54</v>
           </cell>
           <cell r="I2">
-            <v>35.6</v>
+            <v>10.18</v>
           </cell>
           <cell r="J2">
-            <v>34.4</v>
+            <v>10.37</v>
           </cell>
           <cell r="K2">
-            <v>33.6</v>
+            <v>9.5</v>
           </cell>
           <cell r="L2">
-            <v>32.799999999999997</v>
+            <v>7.29</v>
           </cell>
           <cell r="M2">
-            <v>32</v>
+            <v>7.76</v>
           </cell>
           <cell r="N2">
-            <v>32.400000000000006</v>
+            <v>8.52</v>
           </cell>
           <cell r="O2">
-            <v>32.799999999999997</v>
+            <v>7.91</v>
           </cell>
           <cell r="P2">
-            <v>33.199999999999996</v>
+            <v>7.86</v>
           </cell>
           <cell r="Q2">
-            <v>33.6</v>
+            <v>7.35</v>
           </cell>
           <cell r="R2">
-            <v>33.199999999999996</v>
+            <v>9.0500000000000007</v>
           </cell>
           <cell r="S2">
-            <v>33.6</v>
+            <v>7.44</v>
           </cell>
           <cell r="T2">
-            <v>33.199999999999996</v>
+            <v>4.84</v>
           </cell>
           <cell r="U2">
-            <v>33.6</v>
+            <v>4.2699999999999996</v>
           </cell>
           <cell r="V2">
-            <v>33.199999999999996</v>
+            <v>4.2699999999999996</v>
           </cell>
           <cell r="W2">
-            <v>32.799999999999997</v>
+            <v>4.9000000000000004</v>
           </cell>
           <cell r="X2">
-            <v>34</v>
+            <v>8.4</v>
           </cell>
           <cell r="Y2">
-            <v>35.200000000000003</v>
+            <v>9.5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>33.916942135498573</v>
+            <v>10.64</v>
           </cell>
           <cell r="C3">
-            <v>33.916942135498573</v>
+            <v>9.02</v>
           </cell>
           <cell r="D3">
-            <v>34.199999999999996</v>
+            <v>5.51</v>
           </cell>
           <cell r="E3">
-            <v>34.58</v>
+            <v>5.7</v>
           </cell>
           <cell r="F3">
-            <v>33.916942135498573</v>
+            <v>5.68</v>
           </cell>
           <cell r="G3">
-            <v>38</v>
+            <v>5.7</v>
           </cell>
           <cell r="H3">
-            <v>34.58</v>
+            <v>11.33</v>
           </cell>
           <cell r="I3">
-            <v>33.82</v>
+            <v>5.98</v>
           </cell>
           <cell r="J3">
-            <v>32.68</v>
+            <v>8.57</v>
           </cell>
           <cell r="K3">
-            <v>31.919999999999998</v>
+            <v>4.71</v>
           </cell>
           <cell r="L3">
-            <v>31.159999999999997</v>
+            <v>9.1</v>
           </cell>
           <cell r="M3">
-            <v>30.4</v>
+            <v>7.08</v>
           </cell>
           <cell r="N3">
-            <v>30.780000000000005</v>
+            <v>7.32</v>
           </cell>
           <cell r="O3">
-            <v>31.159999999999997</v>
+            <v>5.7</v>
           </cell>
           <cell r="P3">
-            <v>31.539999999999996</v>
+            <v>5.7</v>
           </cell>
           <cell r="Q3">
-            <v>31.919999999999998</v>
+            <v>4.84</v>
           </cell>
           <cell r="R3">
-            <v>31.539999999999996</v>
+            <v>4.88</v>
           </cell>
           <cell r="S3">
-            <v>31.919999999999998</v>
+            <v>4.9400000000000004</v>
           </cell>
           <cell r="T3">
-            <v>31.539999999999996</v>
+            <v>5.68</v>
           </cell>
           <cell r="U3">
-            <v>31.919999999999998</v>
+            <v>4.75</v>
           </cell>
           <cell r="V3">
-            <v>31.539999999999996</v>
+            <v>3.85</v>
           </cell>
           <cell r="W3">
-            <v>31.159999999999997</v>
+            <v>5.6</v>
           </cell>
           <cell r="X3">
-            <v>32.299999999999997</v>
+            <v>6.65</v>
           </cell>
           <cell r="Y3">
-            <v>33.44</v>
+            <v>9.86</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>37.487146570814218</v>
+            <v>6.17</v>
           </cell>
           <cell r="C4">
-            <v>37.487146570814218</v>
+            <v>7.51</v>
           </cell>
           <cell r="D4">
-            <v>37.800000000000004</v>
+            <v>7.6</v>
           </cell>
           <cell r="E4">
-            <v>38.22</v>
+            <v>7.89</v>
           </cell>
           <cell r="F4">
-            <v>37.487146570814218</v>
+            <v>7.98</v>
           </cell>
           <cell r="G4">
-            <v>42</v>
+            <v>8.44</v>
           </cell>
           <cell r="H4">
-            <v>38.22</v>
+            <v>7.6</v>
           </cell>
           <cell r="I4">
-            <v>37.380000000000003</v>
+            <v>7.34</v>
           </cell>
           <cell r="J4">
-            <v>36.119999999999997</v>
+            <v>6.54</v>
           </cell>
           <cell r="K4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="L4">
-            <v>34.44</v>
+            <v>8.44</v>
           </cell>
           <cell r="M4">
-            <v>33.6</v>
+            <v>6.49</v>
           </cell>
           <cell r="N4">
-            <v>34.02000000000001</v>
+            <v>6.44</v>
           </cell>
           <cell r="O4">
-            <v>34.44</v>
+            <v>6.54</v>
           </cell>
           <cell r="P4">
-            <v>34.86</v>
+            <v>7.6</v>
           </cell>
           <cell r="Q4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="R4">
-            <v>34.86</v>
+            <v>7.6</v>
           </cell>
           <cell r="S4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="T4">
-            <v>34.86</v>
+            <v>5.78</v>
           </cell>
           <cell r="U4">
-            <v>35.28</v>
+            <v>1.5</v>
           </cell>
           <cell r="V4">
-            <v>34.86</v>
+            <v>3.8</v>
           </cell>
           <cell r="W4">
-            <v>34.44</v>
+            <v>4.18</v>
           </cell>
           <cell r="X4">
-            <v>35.700000000000003</v>
+            <v>4.28</v>
           </cell>
           <cell r="Y4">
-            <v>36.960000000000008</v>
+            <v>6.54</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="B5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="C5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="D5">
-            <v>32.4</v>
-          </cell>
-          <cell r="E5">
-            <v>32.76</v>
-          </cell>
-          <cell r="F5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="G5">
-            <v>36</v>
-          </cell>
-          <cell r="H5">
-            <v>32.76</v>
-          </cell>
-          <cell r="I5">
-            <v>32.04</v>
-          </cell>
-          <cell r="J5">
-            <v>30.96</v>
-          </cell>
-          <cell r="K5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="L5">
-            <v>29.52</v>
-          </cell>
-          <cell r="M5">
-            <v>28.8</v>
-          </cell>
-          <cell r="N5">
-            <v>29.160000000000007</v>
-          </cell>
-          <cell r="O5">
-            <v>29.52</v>
-          </cell>
-          <cell r="P5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="Q5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="R5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="S5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="T5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="U5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="V5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="W5">
-            <v>29.52</v>
-          </cell>
-          <cell r="X5">
-            <v>30.6</v>
-          </cell>
-          <cell r="Y5">
-            <v>31.680000000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="C6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="D6">
-            <v>39.6</v>
-          </cell>
-          <cell r="E6">
-            <v>40.04</v>
-          </cell>
-          <cell r="F6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="G6">
-            <v>44</v>
-          </cell>
-          <cell r="H6">
-            <v>40.04</v>
-          </cell>
-          <cell r="I6">
-            <v>39.160000000000004</v>
-          </cell>
-          <cell r="J6">
-            <v>37.840000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="L6">
-            <v>36.08</v>
-          </cell>
-          <cell r="M6">
-            <v>35.200000000000003</v>
-          </cell>
-          <cell r="N6">
-            <v>35.640000000000008</v>
-          </cell>
-          <cell r="O6">
-            <v>36.08</v>
-          </cell>
-          <cell r="P6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="Q6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="R6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="S6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="T6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="U6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="V6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="W6">
-            <v>36.08</v>
-          </cell>
-          <cell r="X6">
-            <v>37.400000000000006</v>
-          </cell>
-          <cell r="Y6">
-            <v>38.720000000000006</v>
-          </cell>
+          <cell r="B5"/>
+          <cell r="C5"/>
+          <cell r="D5"/>
+          <cell r="E5"/>
+          <cell r="F5"/>
+          <cell r="G5"/>
+          <cell r="H5"/>
+          <cell r="I5"/>
+          <cell r="J5"/>
+          <cell r="K5"/>
+          <cell r="L5"/>
+          <cell r="M5"/>
+          <cell r="N5"/>
+          <cell r="O5"/>
+          <cell r="P5"/>
+          <cell r="Q5"/>
+          <cell r="R5"/>
+          <cell r="S5"/>
+          <cell r="T5"/>
+          <cell r="U5"/>
+          <cell r="V5"/>
+          <cell r="W5"/>
+          <cell r="X5"/>
+          <cell r="Y5"/>
         </row>
       </sheetData>
       <sheetData sheetId="7">
@@ -3406,23 +3140,23 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.15</v>
@@ -3438,7 +3172,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3460,9 +3194,9 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3539,509 +3273,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.58737290246557</v>
+        <v>28.392678333184982</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.34732235141985</v>
+        <v>22.283950570590637</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>143.30992509506962</v>
+        <v>22.197912151399169</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.16801974550114</v>
+        <v>22.197912151399169</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.54865486202397</v>
+        <v>22.025835313016231</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.49643094400432</v>
+        <v>22.025835313016231</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.96080477597241</v>
+        <v>21.363339485241909</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.89753577702055</v>
+        <v>21.363339485241909</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.07683838293929</v>
+        <v>21.363339485241909</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.15241298973572</v>
+        <v>21.079412701910062</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.44678833698848</v>
+        <v>21.079412701910062</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.81205610184651</v>
+        <v>21.363339485241909</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.80269172346416</v>
+        <v>21.509604797867411</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>120.33615675612977</v>
+        <v>22.025835313016231</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.1959923662901</v>
+        <v>21.879570000390729</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>113.52686436143915</v>
+        <v>20.649220605952713</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>110.45080932182631</v>
+        <v>19.01449064131479</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>109.86542003242063</v>
+        <v>18.412221706974503</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>111.31232563453655</v>
+        <v>21.363339485241909</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.42751889022847</v>
+        <v>21.681681636250349</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.23393031263575</v>
+        <v>22.025835313016231</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.02959631539036</v>
+        <v>25.751298864006863</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.90041674930393</v>
+        <v>28.332451439750951</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.83708749317313</v>
+        <v>25.725487338249422</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.90800425734227</v>
+        <v>26.973044416525735</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.02995623384885</v>
+        <v>23.815434432198796</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>136.14442884031615</v>
+        <v>22.998069449879836</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.20961875822607</v>
+        <v>22.808784927658603</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>133.52122211892276</v>
+        <v>22.83459645341604</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.17160939680409</v>
+        <v>23.737999854926475</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.01276453717378</v>
+        <v>29.080985686716737</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>156.65265898816955</v>
+        <v>32.858072289222257</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.47299646379233</v>
+        <v>33.296868227098756</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.99479234024892</v>
+        <v>33.064564495281779</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.47444892013905</v>
+        <v>32.901091498817991</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.57145329675416</v>
+        <v>32.694599292758461</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>133.76255713729097</v>
+        <v>33.064564495281779</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>114.31934891832327</v>
+        <v>33.098979862958366</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>118.93619274797558</v>
+        <v>33.296868227098756</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>107.85052114336719</v>
+        <v>32.651580083162727</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>104.92826885573498</v>
+        <v>33.064564495281779</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>104.37214903079959</v>
+        <v>33.16781059831154</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>105.74670935280972</v>
+        <v>34.854163614464348</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>120.10614294571705</v>
+        <v>36.936293358897913</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.57223379700397</v>
+        <v>35.972663063953455</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.37811649962083</v>
+        <v>34.828352088706907</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.65539591183872</v>
+        <v>34.174460102851739</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.94523311851449</v>
+        <v>32.651580083162727</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.26674154758888</v>
+        <v>28.53033980389133</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.66468846899087</v>
+        <v>24.606987888760319</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.47542134982311</v>
+        <v>23.230373181696802</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.12642073277621</v>
+        <v>22.800181085739453</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.57608760512517</v>
+        <v>23.66056527765415</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.82125249120452</v>
+        <v>24.116568899368939</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.90884501477103</v>
+        <v>28.392678333184982</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.14241256587158</v>
+        <v>32.470899402860645</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.68068030208624</v>
+        <v>34.234686996285767</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.31003363922252</v>
+        <v>34.836955930626061</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.4191277538379</v>
+        <v>34.260498522043214</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.05265890693883</v>
+        <v>32.763430028111635</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.84282630963739</v>
+        <v>32.014895781145853</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.35296459393626</v>
+        <v>29.786500724086785</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.45579198460462</v>
+        <v>28.547547487729627</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>119.20320757951112</v>
+        <v>25.81152575744089</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.97334978791764</v>
+        <v>24.951141565526196</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.35869103404164</v>
+        <v>26.000810279662122</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>116.87794191626338</v>
+        <v>27.945278553389336</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.7488948347399</v>
+        <v>31.145907747312013</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.89562682826752</v>
+        <v>35.87802080284284</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.68107613115987</v>
+        <v>37.702035289701996</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.14543758676913</v>
+        <v>36.334024424557626</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.72894186783179</v>
+        <v>32.324634090235143</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.22863561221902</v>
+        <v>34.329329257396388</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.71259011627788</v>
+        <v>32.901091498817991</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>128.97893258556266</v>
+        <v>30.492015761456837</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.25121777095104</v>
+        <v>29.511177782674086</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.49378937582158</v>
+        <v>29.382120153886881</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.84678784960388</v>
+        <v>29.278874050857119</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>143.06472429837518</v>
+        <v>29.519781624593236</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>148.40778219931852</v>
+        <v>31.851422784682065</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.86915454464534</v>
+        <v>34.208875470528326</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.83717169076218</v>
+        <v>34.750917511434587</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>143.50210950328963</v>
+        <v>34.664879092243119</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.33085049166183</v>
+        <v>34.028194790226237</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.72242255111775</v>
+        <v>34.088421683660272</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>108.3025410805168</v>
+        <v>31.808403575086324</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>112.67639312966111</v>
+        <v>30.775942544788691</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>102.17417792529524</v>
+        <v>29.683254621057024</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>99.405728389643684</v>
+        <v>29.597216201865553</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>98.878878029178566</v>
+        <v>30.319938923073902</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>100.18109307108288</v>
+        <v>34.948805875574962</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>113.78476700120562</v>
+        <v>43.896801471487812</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.91053728137217</v>
+        <v>43.922612997245245</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.72663668385132</v>
+        <v>43.053624963411409</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.41037507437355</v>
+        <v>40.016468765952524</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>124.05337874385583</v>
+        <v>35.249940342745113</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.94611019271215</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.98205458656187</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>157.6409176045766</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.08482172005128</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.60352034822637</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.14607403840475</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.85688525356966</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.38728935472261</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>189.28452222123323</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>179.46765428870933</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>175.39146717068732</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.29326171203115</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.88296089581058</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.36977243174275</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.71559160291912</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>124.87955079758306</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.49589025400897</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>120.85196203566269</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>122.4435581979902</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.07027077925133</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.55732334389933</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.3325559469294</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.39045842423437</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.62079624249048</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4058,9 +3792,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4137,7 +3871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4238,7 +3972,7 @@
         <v>73.834378783678943</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4339,7 +4073,7 @@
         <v>70.142659844494986</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4440,7 +4174,7 @@
         <v>77.5260977228629</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4541,7 +4275,7 @@
         <v>66.450940905311057</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4642,7 +4376,7 @@
         <v>81.217816662046843</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4681,9 +4415,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4760,7 +4494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4861,7 +4595,7 @@
         <v>204.66717889459414</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4962,7 +4696,7 @@
         <v>194.43381994986441</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5063,7 +4797,7 @@
         <v>214.90053783932387</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5164,7 +4898,7 @@
         <v>184.20046100513474</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5278,9 +5012,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5357,7 +5091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5458,7 +5192,7 @@
         <v>167.45496455012247</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5559,7 +5293,7 @@
         <v>159.08221632261632</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5660,7 +5394,7 @@
         <v>175.82771277762859</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5761,7 +5495,7 @@
         <v>150.70946809511022</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5875,9 +5609,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5954,509 +5688,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.58737290246557</v>
+        <v>26.973044416525735</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.34732235141985</v>
+        <v>23.815434432198796</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>143.30992509506962</v>
+        <v>22.998069449879836</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.16801974550114</v>
+        <v>22.808784927658603</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.54865486202397</v>
+        <v>22.83459645341604</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.49643094400432</v>
+        <v>23.737999854926475</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.96080477597241</v>
+        <v>29.080985686716737</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.89753577702055</v>
+        <v>32.858072289222257</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.07683838293929</v>
+        <v>33.296868227098756</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.15241298973572</v>
+        <v>33.064564495281779</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.44678833698848</v>
+        <v>32.901091498817991</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.81205610184651</v>
+        <v>32.694599292758461</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.80269172346416</v>
+        <v>33.064564495281779</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>120.33615675612977</v>
+        <v>33.098979862958366</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.1959923662901</v>
+        <v>33.296868227098756</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>113.52686436143915</v>
+        <v>32.651580083162727</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>110.45080932182631</v>
+        <v>33.064564495281779</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>109.86542003242063</v>
+        <v>33.16781059831154</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>111.31232563453655</v>
+        <v>34.854163614464348</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.42751889022847</v>
+        <v>36.936293358897913</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.23393031263575</v>
+        <v>35.972663063953455</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.02959631539036</v>
+        <v>34.828352088706907</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.90041674930393</v>
+        <v>34.174460102851739</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.83708749317313</v>
+        <v>32.651580083162727</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.90800425734227</v>
+        <v>28.53033980389133</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.02995623384885</v>
+        <v>24.606987888760319</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>136.14442884031615</v>
+        <v>23.230373181696802</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.20961875822607</v>
+        <v>22.800181085739453</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>133.52122211892276</v>
+        <v>23.66056527765415</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.17160939680409</v>
+        <v>24.116568899368939</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.01276453717378</v>
+        <v>28.392678333184982</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>156.65265898816955</v>
+        <v>32.470899402860645</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.47299646379233</v>
+        <v>34.234686996285767</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.99479234024892</v>
+        <v>34.836955930626061</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.47444892013905</v>
+        <v>34.260498522043214</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.57145329675416</v>
+        <v>32.763430028111635</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>133.76255713729097</v>
+        <v>32.014895781145853</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>114.31934891832327</v>
+        <v>29.786500724086785</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>118.93619274797558</v>
+        <v>28.547547487729627</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>107.85052114336719</v>
+        <v>25.81152575744089</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>104.92826885573498</v>
+        <v>24.951141565526196</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>104.37214903079959</v>
+        <v>26.000810279662122</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>105.74670935280972</v>
+        <v>27.945278553389336</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>120.10614294571705</v>
+        <v>31.145907747312013</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.57223379700397</v>
+        <v>35.87802080284284</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.37811649962083</v>
+        <v>37.702035289701996</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.65539591183872</v>
+        <v>36.334024424557626</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.94523311851449</v>
+        <v>32.324634090235143</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.26674154758888</v>
+        <v>34.329329257396388</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.66468846899087</v>
+        <v>32.901091498817991</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.47542134982311</v>
+        <v>30.492015761456837</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.12642073277621</v>
+        <v>29.511177782674086</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.57608760512517</v>
+        <v>29.382120153886881</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.82125249120452</v>
+        <v>29.278874050857119</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.90884501477103</v>
+        <v>29.519781624593236</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.14241256587158</v>
+        <v>31.851422784682065</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.68068030208624</v>
+        <v>34.208875470528326</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.31003363922252</v>
+        <v>34.750917511434587</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.4191277538379</v>
+        <v>34.664879092243119</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.05265890693883</v>
+        <v>34.028194790226237</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.84282630963739</v>
+        <v>34.088421683660272</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.35296459393626</v>
+        <v>31.808403575086324</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.45579198460462</v>
+        <v>30.775942544788691</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>119.20320757951112</v>
+        <v>29.683254621057024</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.97334978791764</v>
+        <v>29.597216201865553</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.35869103404164</v>
+        <v>30.319938923073902</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>116.87794191626338</v>
+        <v>34.948805875574962</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.7488948347399</v>
+        <v>43.896801471487812</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.89562682826752</v>
+        <v>43.922612997245245</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.68107613115987</v>
+        <v>43.053624963411409</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.14543758676913</v>
+        <v>40.016468765952524</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.72894186783179</v>
+        <v>35.249940342745113</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.22863561221902</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.71259011627788</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>128.97893258556266</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.25121777095104</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.49378937582158</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.84678784960388</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>143.06472429837518</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>148.40778219931852</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.86915454464534</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.83717169076218</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>143.50210950328963</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.33085049166183</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.72242255111775</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>108.3025410805168</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>112.67639312966111</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>102.17417792529524</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>99.405728389643684</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>98.878878029178566</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>100.18109307108288</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>113.78476700120562</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.91053728137217</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.72663668385132</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.41037507437355</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>124.05337874385583</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.94611019271215</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.98205458656187</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>157.6409176045766</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.08482172005128</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.60352034822637</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.14607403840475</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.85688525356966</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.38728935472261</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>189.28452222123323</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>179.46765428870933</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>175.39146717068732</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.29326171203115</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>154.88296089581058</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.36977243174275</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.71559160291912</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>124.87955079758306</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.49589025400897</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>120.85196203566269</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>122.4435581979902</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.07027077925133</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.55732334389933</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.3325559469294</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.39045842423437</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.62079624249048</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6473,9 +6207,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6552,512 +6286,512 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>74.887450742120876</v>
+        <v>28.31716231760414</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>74.887450742120876</v>
+        <v>31.211805576737007</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>75.512432846944364</v>
+        <v>18.710302805409547</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>76.351459878577089</v>
+        <v>18.731278481200366</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>74.887450742120876</v>
+        <v>18.731278481200366</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>83.902703163271525</v>
+        <v>18.626400102246279</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>76.351459878577089</v>
+        <v>26.303497441685622</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>74.673405815311654</v>
+        <v>21.353237955052602</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>72.156324720413508</v>
+        <v>21.751775795078139</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>70.478270657148087</v>
+        <v>19.926892001276986</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>68.800216593882638</v>
+        <v>15.291267651506235</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>67.122162530617217</v>
+        <v>16.277124413674674</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>67.961189562249942</v>
+        <v>17.871275773776834</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>68.800216593882638</v>
+        <v>16.591759550536942</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>69.639243625515348</v>
+        <v>16.486881171582855</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>70.478270657148087</v>
+        <v>15.417121706251141</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>69.639243625515348</v>
+        <v>18.982986590690182</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>70.478270657148087</v>
+        <v>15.605902788368503</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>69.639243625515348</v>
+        <v>10.152227082755854</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>70.478270657148087</v>
+        <v>8.9566135626792338</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>69.639243625515348</v>
+        <v>8.9566135626792338</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>68.800216593882638</v>
+        <v>10.278081137500761</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>71.317297688780798</v>
+        <v>17.619567664287022</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>73.834378783678943</v>
+        <v>19.926892001276986</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>71.143078205014831</v>
+        <v>22.318119041430226</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>71.143078205014831</v>
+        <v>18.920059563317729</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>71.736811204597146</v>
+        <v>11.557597360740651</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>72.533886884648226</v>
+        <v>11.956135200766193</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>71.143078205014831</v>
+        <v>11.914183849184555</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>79.707568005107944</v>
+        <v>11.956135200766193</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>72.533886884648226</v>
+        <v>23.765440670996657</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>70.939735524546066</v>
+        <v>12.543454122909093</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>68.548508484392826</v>
+        <v>17.976154152730924</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>66.954357124290667</v>
+        <v>9.8795432974752213</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>65.360205764188507</v>
+        <v>19.087864969644272</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>63.766054404086354</v>
+        <v>14.850778459899059</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>64.563130084137441</v>
+        <v>15.35419467887869</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>65.360205764188507</v>
+        <v>11.956135200766193</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>66.157281444239587</v>
+        <v>11.956135200766193</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>66.954357124290667</v>
+        <v>10.152227082755854</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>66.157281444239587</v>
+        <v>10.236129785919125</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>66.954357124290667</v>
+        <v>10.361983840664033</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>66.157281444239587</v>
+        <v>11.914183849184555</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>66.954357124290667</v>
+        <v>9.9634460006384931</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>66.157281444239587</v>
+        <v>8.075635179464884</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>65.360205764188507</v>
+        <v>11.746378442858012</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>67.751432804341746</v>
+        <v>13.948824400893891</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>70.142659844494986</v>
+        <v>20.682016329746428</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>78.631823279226936</v>
+        <v>12.941991962934631</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>78.631823279226936</v>
+        <v>15.752732518904228</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>79.288054489291596</v>
+        <v>15.941513601021589</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>80.169032872505937</v>
+        <v>16.549808198955308</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>78.631823279226936</v>
+        <v>16.73858928107267</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>88.097838321435091</v>
+        <v>17.70347036745029</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>80.169032872505937</v>
+        <v>15.941513601021589</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>78.407076106077241</v>
+        <v>15.396146030460324</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>75.764140956434176</v>
+        <v>13.718091967194894</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>74.00218419000548</v>
+        <v>15.941513601021589</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>72.240227423576769</v>
+        <v>17.70347036745029</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>70.478270657148087</v>
+        <v>13.613213588240805</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>71.359249040362457</v>
+        <v>13.508335209286717</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>72.240227423576769</v>
+        <v>13.718091967194894</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>73.121205806791124</v>
+        <v>15.941513601021589</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>74.00218419000548</v>
+        <v>15.941513601021589</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>73.121205806791124</v>
+        <v>15.941513601021589</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>74.00218419000548</v>
+        <v>15.941513601021589</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>73.121205806791124</v>
+        <v>12.123940607092736</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>74.00218419000548</v>
+        <v>3.1463513686226818</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>73.121205806791124</v>
+        <v>7.9707568005107943</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>72.240227423576769</v>
+        <v>8.7678324805618733</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>74.883162573219835</v>
+        <v>8.9775892384700526</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>77.5260977228629</v>
+        <v>13.718091967194894</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>67.3987056679088</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>67.3987056679088</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>67.961189562249928</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>68.716313890719377</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>67.3987056679088</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>75.512432846944364</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>68.716313890719377</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>67.206065233780492</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>64.940692248372159</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>63.430443591433274</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>61.920194934494383</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>60.409946277555498</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>61.165070606024955</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>61.920194934494383</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>62.675319262963818</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>63.430443591433274</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>62.675319262963818</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>63.430443591433274</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>62.675319262963818</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>63.430443591433274</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>62.675319262963818</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>61.920194934494383</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>64.185567919902724</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>66.450940905311057</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>82.376195816332981</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>82.376195816332981</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>83.063676131638815</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>83.986605866434786</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>82.376195816332981</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>92.292973479598672</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>83.986605866434786</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>82.140746396842829</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>79.371957192454872</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>77.5260977228629</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>75.680238253270915</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>73.834378783678943</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>74.757308518474943</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>75.680238253270915</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>76.603167988066886</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>77.5260977228629</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>76.603167988066886</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>77.5260977228629</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>76.603167988066886</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>77.5260977228629</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>76.603167988066886</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>75.680238253270915</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>78.449027457658886</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>81.217816662046843</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -7096,9 +6830,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7175,7 +6909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7276,7 +7010,7 @@
         <v>204.66717889459414</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7377,7 +7111,7 @@
         <v>194.43381994986441</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7478,7 +7212,7 @@
         <v>214.90053783932387</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7579,7 +7313,7 @@
         <v>184.20046100513474</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7693,9 +7427,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7772,7 +7506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7873,7 +7607,7 @@
         <v>167.45496455012247</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7974,7 +7708,7 @@
         <v>159.08221632261632</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8075,7 +7809,7 @@
         <v>175.82771277762859</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8176,7 +7910,7 @@
         <v>150.70946809511022</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
